--- a/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
+++ b/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D71A1F-FC7A-4171-8AEA-D81E7ACA9FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D781C5-42E6-449D-A55F-2361E6E5C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E52436F2-D984-4EE3-B8A0-F9D4A91B50A0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>MakokaMeanTemp</t>
+  </si>
+  <si>
+    <t>ChancellorCollegeRainfall</t>
   </si>
 </sst>
 </file>
@@ -561,9 +564,9 @@
   </sheetPr>
   <dimension ref="A1:AX925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X278" sqref="X278:Z278"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E333" sqref="E333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -625,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>40</v>

--- a/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
+++ b/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D781C5-42E6-449D-A55F-2361E6E5C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571F327-55E6-4C34-9A66-DC6697CBE59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E52436F2-D984-4EE3-B8A0-F9D4A91B50A0}"/>
   </bookViews>
@@ -565,8 +565,8 @@
   <dimension ref="A1:AX925"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E333" sqref="E333"/>
+      <pane ySplit="1" topLeftCell="A749" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R757" sqref="A757:XFD757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -17376,13 +17376,13 @@
       <c r="W278" s="3">
         <v>28.25745564</v>
       </c>
-      <c r="X278" s="3">
+      <c r="X278" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y278" s="3">
+      <c r="Y278" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z278" s="3">
+      <c r="Z278" s="4">
         <v>22.5</v>
       </c>
       <c r="AC278" s="4">
@@ -17460,13 +17460,13 @@
       <c r="W279" s="3">
         <v>29.169076220000001</v>
       </c>
-      <c r="X279" s="3">
+      <c r="X279" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y279" s="3">
+      <c r="Y279" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z279" s="3">
+      <c r="Z279" s="4">
         <v>22.6</v>
       </c>
       <c r="AC279" s="4">
@@ -17544,13 +17544,13 @@
       <c r="W280" s="3">
         <v>28.378286320000001</v>
       </c>
-      <c r="X280" s="3">
+      <c r="X280" s="4">
         <v>18</v>
       </c>
-      <c r="Y280" s="3">
+      <c r="Y280" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z280" s="3">
+      <c r="Z280" s="4">
         <v>22.2</v>
       </c>
       <c r="AC280" s="4">
@@ -17628,13 +17628,13 @@
       <c r="W281" s="3">
         <v>27.51415772</v>
       </c>
-      <c r="X281" s="3">
+      <c r="X281" s="4">
         <v>17</v>
       </c>
-      <c r="Y281" s="3">
+      <c r="Y281" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z281" s="3">
+      <c r="Z281" s="4">
         <v>21.4</v>
       </c>
       <c r="AC281" s="4">
@@ -17712,13 +17712,13 @@
       <c r="W282" s="3">
         <v>25.321333670000001</v>
       </c>
-      <c r="X282" s="3">
+      <c r="X282" s="4">
         <v>13.4</v>
       </c>
-      <c r="Y282" s="3">
+      <c r="Y282" s="4">
         <v>23.6</v>
       </c>
-      <c r="Z282" s="3">
+      <c r="Z282" s="4">
         <v>18.5</v>
       </c>
       <c r="AC282" s="4">
@@ -17796,13 +17796,13 @@
       <c r="W283" s="3">
         <v>24.314336170000001</v>
       </c>
-      <c r="X283" s="3">
+      <c r="X283" s="4">
         <v>12.7</v>
       </c>
-      <c r="Y283" s="3">
+      <c r="Y283" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z283" s="3">
+      <c r="Z283" s="4">
         <v>18</v>
       </c>
       <c r="AC283" s="4">
@@ -17880,13 +17880,13 @@
       <c r="W284" s="3">
         <v>24.160020530000001</v>
       </c>
-      <c r="X284" s="3">
+      <c r="X284" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y284" s="3">
+      <c r="Y284" s="4">
         <v>22.1</v>
       </c>
-      <c r="Z284" s="3">
+      <c r="Z284" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC284" s="4">
@@ -17964,13 +17964,13 @@
       <c r="W285" s="3">
         <v>25.007353470000002</v>
       </c>
-      <c r="X285" s="3">
+      <c r="X285" s="4">
         <v>13</v>
       </c>
-      <c r="Y285" s="3">
+      <c r="Y285" s="4">
         <v>23.6</v>
       </c>
-      <c r="Z285" s="3">
+      <c r="Z285" s="4">
         <v>18.3</v>
       </c>
       <c r="AC285" s="4">
@@ -18048,13 +18048,13 @@
       <c r="W286" s="3">
         <v>28.04134513</v>
       </c>
-      <c r="X286" s="3">
+      <c r="X286" s="4">
         <v>14.4</v>
       </c>
-      <c r="Y286" s="3">
+      <c r="Y286" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z286" s="3">
+      <c r="Z286" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="AC286" s="4">
@@ -18132,13 +18132,13 @@
       <c r="W287" s="3">
         <v>32.443235970000003</v>
       </c>
-      <c r="X287" s="3">
+      <c r="X287" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y287" s="3">
+      <c r="Y287" s="4">
         <v>30.6</v>
       </c>
-      <c r="Z287" s="3">
+      <c r="Z287" s="4">
         <v>24.6</v>
       </c>
       <c r="AC287" s="4">
@@ -18216,13 +18216,13 @@
       <c r="W288" s="3">
         <v>31.602798809999999</v>
       </c>
-      <c r="X288" s="3">
+      <c r="X288" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y288" s="3">
+      <c r="Y288" s="4">
         <v>30</v>
       </c>
-      <c r="Z288" s="3">
+      <c r="Z288" s="4">
         <v>24.4</v>
       </c>
       <c r="AC288" s="4">
@@ -18300,13 +18300,13 @@
       <c r="W289" s="3">
         <v>27.866683309999999</v>
       </c>
-      <c r="X289" s="3">
+      <c r="X289" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y289" s="3">
+      <c r="Y289" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z289" s="3">
+      <c r="Z289" s="4">
         <v>22.5</v>
       </c>
       <c r="AC289" s="4">
@@ -18384,13 +18384,13 @@
       <c r="W290" s="3">
         <v>28.510038560000002</v>
       </c>
-      <c r="X290" s="3">
+      <c r="X290" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y290" s="3">
+      <c r="Y290" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z290" s="3">
+      <c r="Z290" s="4">
         <v>22.4</v>
       </c>
       <c r="AC290" s="4">
@@ -18468,13 +18468,13 @@
       <c r="W291" s="3">
         <v>28.6861511</v>
       </c>
-      <c r="X291" s="3">
+      <c r="X291" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y291" s="3">
+      <c r="Y291" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z291" s="3">
+      <c r="Z291" s="4">
         <v>22</v>
       </c>
       <c r="AC291" s="4">
@@ -18552,13 +18552,13 @@
       <c r="W292" s="3">
         <v>28.342200399999999</v>
       </c>
-      <c r="X292" s="3">
+      <c r="X292" s="4">
         <v>17.3</v>
       </c>
-      <c r="Y292" s="3">
+      <c r="Y292" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z292" s="3">
+      <c r="Z292" s="4">
         <v>22.1</v>
       </c>
       <c r="AC292" s="4">
@@ -18636,13 +18636,13 @@
       <c r="W293" s="3">
         <v>26.837053059999999</v>
       </c>
-      <c r="X293" s="3">
+      <c r="X293" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y293" s="3">
+      <c r="Y293" s="4">
         <v>25.4</v>
       </c>
-      <c r="Z293" s="3">
+      <c r="Z293" s="4">
         <v>21.1</v>
       </c>
       <c r="AC293" s="4">
@@ -18720,13 +18720,13 @@
       <c r="W294" s="3">
         <v>26.318200139999998</v>
       </c>
-      <c r="X294" s="3">
+      <c r="X294" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y294" s="3">
+      <c r="Y294" s="4">
         <v>25</v>
       </c>
-      <c r="Z294" s="3">
+      <c r="Z294" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="AC294" s="4">
@@ -18804,13 +18804,13 @@
       <c r="W295" s="3">
         <v>23.768717469999999</v>
       </c>
-      <c r="X295" s="3">
+      <c r="X295" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y295" s="3">
+      <c r="Y295" s="4">
         <v>22.4</v>
       </c>
-      <c r="Z295" s="3">
+      <c r="Z295" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="AC295" s="4">
@@ -18888,13 +18888,13 @@
       <c r="W296" s="3">
         <v>25.214210420000001</v>
       </c>
-      <c r="X296" s="3">
+      <c r="X296" s="4">
         <v>12</v>
       </c>
-      <c r="Y296" s="3">
+      <c r="Y296" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z296" s="3">
+      <c r="Z296" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="AC296" s="4">
@@ -18972,13 +18972,13 @@
       <c r="W297" s="3">
         <v>26.081459599999999</v>
       </c>
-      <c r="X297" s="3">
+      <c r="X297" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y297" s="3">
+      <c r="Y297" s="4">
         <v>24.6</v>
       </c>
-      <c r="Z297" s="3">
+      <c r="Z297" s="4">
         <v>18.7</v>
       </c>
       <c r="AC297" s="4">
@@ -19056,13 +19056,13 @@
       <c r="W298" s="3">
         <v>29.903265739999998</v>
       </c>
-      <c r="X298" s="3">
+      <c r="X298" s="4">
         <v>14.4</v>
       </c>
-      <c r="Y298" s="3">
+      <c r="Y298" s="4">
         <v>28.3</v>
       </c>
-      <c r="Z298" s="3">
+      <c r="Z298" s="4">
         <v>21.4</v>
       </c>
       <c r="AC298" s="4">
@@ -19140,13 +19140,13 @@
       <c r="W299" s="3">
         <v>31.15828595</v>
       </c>
-      <c r="X299" s="3">
+      <c r="X299" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="Y299" s="3">
+      <c r="Y299" s="4">
         <v>28.2</v>
       </c>
-      <c r="Z299" s="3">
+      <c r="Z299" s="4">
         <v>22.3</v>
       </c>
       <c r="AC299" s="4">
@@ -19224,13 +19224,13 @@
       <c r="W300" s="3">
         <v>30.175845330000001</v>
       </c>
-      <c r="X300" s="3">
+      <c r="X300" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y300" s="3">
+      <c r="Y300" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z300" s="3">
+      <c r="Z300" s="4">
         <v>22.9</v>
       </c>
       <c r="AC300" s="4">
@@ -19308,13 +19308,13 @@
       <c r="W301" s="3">
         <v>28.06233207</v>
       </c>
-      <c r="X301" s="3">
+      <c r="X301" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y301" s="3">
+      <c r="Y301" s="4">
         <v>25.6</v>
       </c>
-      <c r="Z301" s="3">
+      <c r="Z301" s="4">
         <v>21.9</v>
       </c>
       <c r="AC301" s="4">
@@ -19394,13 +19394,13 @@
       <c r="W302" s="3">
         <v>27.162382000000001</v>
       </c>
-      <c r="X302" s="3">
+      <c r="X302" s="4">
         <v>18</v>
       </c>
-      <c r="Y302" s="3">
+      <c r="Y302" s="4">
         <v>25</v>
       </c>
-      <c r="Z302" s="3">
+      <c r="Z302" s="4">
         <v>21.5</v>
       </c>
       <c r="AC302" s="4">
@@ -19480,13 +19480,13 @@
       <c r="W303" s="3">
         <v>27.9396235</v>
       </c>
-      <c r="X303" s="3">
+      <c r="X303" s="4">
         <v>18</v>
       </c>
-      <c r="Y303" s="3">
+      <c r="Y303" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z303" s="3">
+      <c r="Z303" s="4">
         <v>22</v>
       </c>
       <c r="AC303" s="4">
@@ -19566,13 +19566,13 @@
       <c r="W304" s="3">
         <v>28.041683540000001</v>
       </c>
-      <c r="X304" s="3">
+      <c r="X304" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y304" s="3">
+      <c r="Y304" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z304" s="3">
+      <c r="Z304" s="4">
         <v>22</v>
       </c>
       <c r="AC304" s="4">
@@ -19652,13 +19652,13 @@
       <c r="W305" s="3">
         <v>28.197785540000002</v>
       </c>
-      <c r="X305" s="3">
+      <c r="X305" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="Y305" s="3">
+      <c r="Y305" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z305" s="3">
+      <c r="Z305" s="4">
         <v>22</v>
       </c>
       <c r="AC305" s="4">
@@ -19738,13 +19738,13 @@
       <c r="W306" s="3">
         <v>25.292513379999999</v>
       </c>
-      <c r="X306" s="3">
+      <c r="X306" s="4">
         <v>14.7</v>
       </c>
-      <c r="Y306" s="3">
+      <c r="Y306" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z306" s="3">
+      <c r="Z306" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="AC306" s="4">
@@ -19824,13 +19824,13 @@
       <c r="W307" s="3">
         <v>23.341015970000001</v>
       </c>
-      <c r="X307" s="3">
+      <c r="X307" s="4">
         <v>10.5</v>
       </c>
-      <c r="Y307" s="3">
+      <c r="Y307" s="4">
         <v>22</v>
       </c>
-      <c r="Z307" s="3">
+      <c r="Z307" s="4">
         <v>16.3</v>
       </c>
       <c r="AC307" s="4">
@@ -19910,13 +19910,13 @@
       <c r="W308" s="3">
         <v>24.793646039999999</v>
       </c>
-      <c r="X308" s="3">
+      <c r="X308" s="4">
         <v>11.2</v>
       </c>
-      <c r="Y308" s="3">
+      <c r="Y308" s="4">
         <v>22.7</v>
       </c>
-      <c r="Z308" s="3">
+      <c r="Z308" s="4">
         <v>17</v>
       </c>
       <c r="AC308" s="4">
@@ -19996,13 +19996,13 @@
       <c r="W309" s="3">
         <v>26.591678460000001</v>
       </c>
-      <c r="X309" s="3">
+      <c r="X309" s="4">
         <v>11.8</v>
       </c>
-      <c r="Y309" s="3">
+      <c r="Y309" s="4">
         <v>25</v>
       </c>
-      <c r="Z309" s="3">
+      <c r="Z309" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="AC309" s="4">
@@ -20082,13 +20082,13 @@
       <c r="W310" s="3">
         <v>28.46152858</v>
       </c>
-      <c r="X310" s="3">
+      <c r="X310" s="4">
         <v>15.1</v>
       </c>
-      <c r="Y310" s="3">
+      <c r="Y310" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z310" s="3">
+      <c r="Z310" s="4">
         <v>20.9</v>
       </c>
       <c r="AC310" s="4">
@@ -20168,13 +20168,13 @@
       <c r="W311" s="3">
         <v>31.197165129999998</v>
       </c>
-      <c r="X311" s="3">
+      <c r="X311" s="4">
         <v>17</v>
       </c>
-      <c r="Y311" s="3">
+      <c r="Y311" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z311" s="3">
+      <c r="Z311" s="4">
         <v>22.9</v>
       </c>
       <c r="AC311" s="4">
@@ -20254,13 +20254,13 @@
       <c r="W312" s="3">
         <v>30.17516019</v>
       </c>
-      <c r="X312" s="3">
+      <c r="X312" s="4">
         <v>17</v>
       </c>
-      <c r="Y312" s="3">
+      <c r="Y312" s="4">
         <v>28.2</v>
       </c>
-      <c r="Z312" s="3">
+      <c r="Z312" s="4">
         <v>22.6</v>
       </c>
       <c r="AC312" s="4">
@@ -20340,13 +20340,13 @@
       <c r="W313" s="3">
         <v>29.175897110000001</v>
       </c>
-      <c r="X313" s="3">
+      <c r="X313" s="4">
         <v>19.2</v>
       </c>
-      <c r="Y313" s="3">
+      <c r="Y313" s="4">
         <v>27</v>
       </c>
-      <c r="Z313" s="3">
+      <c r="Z313" s="4">
         <v>23.1</v>
       </c>
       <c r="AC313" s="4">
@@ -20426,13 +20426,13 @@
       <c r="W314" s="3">
         <v>27.83246789</v>
       </c>
-      <c r="X314" s="3">
+      <c r="X314" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y314" s="3">
+      <c r="Y314" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z314" s="3">
+      <c r="Z314" s="4">
         <v>22.5</v>
       </c>
       <c r="AC314" s="4">
@@ -20512,13 +20512,13 @@
       <c r="W315" s="3">
         <v>28.00856564</v>
       </c>
-      <c r="X315" s="3">
+      <c r="X315" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y315" s="3">
+      <c r="Y315" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z315" s="3">
+      <c r="Z315" s="4">
         <v>22.1</v>
       </c>
       <c r="AC315" s="4">
@@ -20598,13 +20598,13 @@
       <c r="W316" s="3">
         <v>27.807229570000001</v>
       </c>
-      <c r="X316" s="3">
+      <c r="X316" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y316" s="3">
+      <c r="Y316" s="4">
         <v>26</v>
       </c>
-      <c r="Z316" s="3">
+      <c r="Z316" s="4">
         <v>22.2</v>
       </c>
       <c r="AC316" s="4">
@@ -20684,13 +20684,13 @@
       <c r="W317" s="3">
         <v>27.324123230000001</v>
       </c>
-      <c r="X317" s="3">
+      <c r="X317" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y317" s="3">
+      <c r="Y317" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z317" s="3">
+      <c r="Z317" s="4">
         <v>21.2</v>
       </c>
       <c r="AC317" s="4">
@@ -20770,13 +20770,13 @@
       <c r="W318" s="3">
         <v>25.868694349999998</v>
       </c>
-      <c r="X318" s="3">
+      <c r="X318" s="4">
         <v>13.8</v>
       </c>
-      <c r="Y318" s="3">
+      <c r="Y318" s="4">
         <v>24.2</v>
       </c>
-      <c r="Z318" s="3">
+      <c r="Z318" s="4">
         <v>19</v>
       </c>
       <c r="AC318" s="4">
@@ -20856,13 +20856,13 @@
       <c r="W319" s="3">
         <v>23.34860707</v>
       </c>
-      <c r="X319" s="3">
+      <c r="X319" s="4">
         <v>11.5</v>
       </c>
-      <c r="Y319" s="3">
+      <c r="Y319" s="4">
         <v>21.3</v>
       </c>
-      <c r="Z319" s="3">
+      <c r="Z319" s="4">
         <v>16.399999999999999</v>
       </c>
       <c r="AC319" s="4">
@@ -20942,13 +20942,13 @@
       <c r="W320" s="3">
         <v>23.607212010000001</v>
       </c>
-      <c r="X320" s="3">
+      <c r="X320" s="4">
         <v>11</v>
       </c>
-      <c r="Y320" s="3">
+      <c r="Y320" s="4">
         <v>21.2</v>
       </c>
-      <c r="Z320" s="3">
+      <c r="Z320" s="4">
         <v>16.100000000000001</v>
       </c>
       <c r="AC320" s="4">
@@ -21028,13 +21028,13 @@
       <c r="W321" s="3">
         <v>25.308861520000001</v>
       </c>
-      <c r="X321" s="3">
+      <c r="X321" s="4">
         <v>11.8</v>
       </c>
-      <c r="Y321" s="3">
+      <c r="Y321" s="4">
         <v>24</v>
       </c>
-      <c r="Z321" s="3">
+      <c r="Z321" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="AC321" s="4">
@@ -21114,13 +21114,13 @@
       <c r="W322" s="3">
         <v>29.07517683</v>
       </c>
-      <c r="X322" s="3">
+      <c r="X322" s="4">
         <v>15.3</v>
       </c>
-      <c r="Y322" s="3">
+      <c r="Y322" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z322" s="3">
+      <c r="Z322" s="4">
         <v>21.4</v>
       </c>
       <c r="AC322" s="4">
@@ -21200,13 +21200,13 @@
       <c r="W323" s="3">
         <v>31.228147159999999</v>
       </c>
-      <c r="X323" s="3">
+      <c r="X323" s="4">
         <v>18</v>
       </c>
-      <c r="Y323" s="3">
+      <c r="Y323" s="4">
         <v>29</v>
       </c>
-      <c r="Z323" s="3">
+      <c r="Z323" s="4">
         <v>23.5</v>
       </c>
       <c r="AC323" s="4">
@@ -21286,13 +21286,13 @@
       <c r="W324" s="3">
         <v>29.676604439999998</v>
       </c>
-      <c r="X324" s="3">
+      <c r="X324" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y324" s="3">
+      <c r="Y324" s="4">
         <v>28</v>
       </c>
-      <c r="Z324" s="3">
+      <c r="Z324" s="4">
         <v>22.9</v>
       </c>
       <c r="AC324" s="4">
@@ -21372,13 +21372,13 @@
       <c r="W325" s="3">
         <v>30.4612327</v>
       </c>
-      <c r="X325" s="3">
+      <c r="X325" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y325" s="3">
+      <c r="Y325" s="4">
         <v>28.1</v>
       </c>
-      <c r="Z325" s="3">
+      <c r="Z325" s="4">
         <v>23.1</v>
       </c>
       <c r="AC325" s="4">
@@ -21458,13 +21458,13 @@
       <c r="W326" s="3">
         <v>28.627045020000001</v>
       </c>
-      <c r="X326" s="3">
+      <c r="X326" s="4">
         <v>18</v>
       </c>
-      <c r="Y326" s="3">
+      <c r="Y326" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z326" s="3">
+      <c r="Z326" s="4">
         <v>22.1</v>
       </c>
       <c r="AC326" s="4">
@@ -21544,13 +21544,13 @@
       <c r="W327" s="3">
         <v>29.08309062</v>
       </c>
-      <c r="X327" s="3">
+      <c r="X327" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y327" s="3">
+      <c r="Y327" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z327" s="3">
+      <c r="Z327" s="4">
         <v>22.4</v>
       </c>
       <c r="AC327" s="4">
@@ -21630,13 +21630,13 @@
       <c r="W328" s="3">
         <v>28.79149168</v>
       </c>
-      <c r="X328" s="3">
+      <c r="X328" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="Y328" s="3">
+      <c r="Y328" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z328" s="3">
+      <c r="Z328" s="4">
         <v>22.7</v>
       </c>
       <c r="AC328" s="4">
@@ -21716,13 +21716,13 @@
       <c r="W329" s="3">
         <v>26.128297870000001</v>
       </c>
-      <c r="X329" s="3">
+      <c r="X329" s="4">
         <v>15.3</v>
       </c>
-      <c r="Y329" s="3">
+      <c r="Y329" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z329" s="3">
+      <c r="Z329" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="AC329" s="4">
@@ -21802,13 +21802,13 @@
       <c r="W330" s="3">
         <v>26.221328119999999</v>
       </c>
-      <c r="X330" s="3">
+      <c r="X330" s="4">
         <v>13.8</v>
       </c>
-      <c r="Y330" s="3">
+      <c r="Y330" s="4">
         <v>24.7</v>
       </c>
-      <c r="Z330" s="3">
+      <c r="Z330" s="4">
         <v>19.3</v>
       </c>
       <c r="AC330" s="4">
@@ -21888,13 +21888,13 @@
       <c r="W331" s="3">
         <v>23.02785776</v>
       </c>
-      <c r="X331" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y331" s="3">
+      <c r="X331" s="4">
+        <v>11.55</v>
+      </c>
+      <c r="Y331" s="4">
         <v>21.4</v>
       </c>
-      <c r="Z331" s="3">
+      <c r="Z331" s="4">
         <v>10.7</v>
       </c>
       <c r="AC331" s="4">
@@ -21974,13 +21974,13 @@
       <c r="W332" s="3">
         <v>23.907715920000001</v>
       </c>
-      <c r="X332" s="3">
+      <c r="X332" s="4">
         <v>11.3</v>
       </c>
-      <c r="Y332" s="3">
+      <c r="Y332" s="4">
         <v>21.7</v>
       </c>
-      <c r="Z332" s="3">
+      <c r="Z332" s="4">
         <v>16.5</v>
       </c>
       <c r="AC332" s="4">
@@ -22060,13 +22060,13 @@
       <c r="W333" s="3">
         <v>25.269164050000001</v>
       </c>
-      <c r="X333" s="3">
+      <c r="X333" s="4">
         <v>13</v>
       </c>
-      <c r="Y333" s="3">
+      <c r="Y333" s="4">
         <v>23.3</v>
       </c>
-      <c r="Z333" s="3">
+      <c r="Z333" s="4">
         <v>18.2</v>
       </c>
       <c r="AC333" s="4">
@@ -22146,13 +22146,13 @@
       <c r="W334" s="3">
         <v>29.725982640000002</v>
       </c>
-      <c r="X334" s="3">
+      <c r="X334" s="4">
         <v>13.5</v>
       </c>
-      <c r="Y334" s="3">
+      <c r="Y334" s="4">
         <v>28.3</v>
       </c>
-      <c r="Z334" s="3">
+      <c r="Z334" s="4">
         <v>20.9</v>
       </c>
       <c r="AC334" s="4">
@@ -22232,13 +22232,13 @@
       <c r="W335" s="3">
         <v>31.660012200000001</v>
       </c>
-      <c r="X335" s="3">
+      <c r="X335" s="4">
         <v>16.3</v>
       </c>
-      <c r="Y335" s="3">
+      <c r="Y335" s="4">
         <v>29.7</v>
       </c>
-      <c r="Z335" s="3">
+      <c r="Z335" s="4">
         <v>23</v>
       </c>
       <c r="AC335" s="4">
@@ -22318,13 +22318,13 @@
       <c r="W336" s="3">
         <v>30.53959021</v>
       </c>
-      <c r="X336" s="3">
+      <c r="X336" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y336" s="3">
+      <c r="Y336" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z336" s="3">
+      <c r="Z336" s="4">
         <v>23.4</v>
       </c>
       <c r="AC336" s="4">
@@ -22404,13 +22404,13 @@
       <c r="W337" s="3">
         <v>28.671136260000001</v>
       </c>
-      <c r="X337" s="3">
+      <c r="X337" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y337" s="3">
+      <c r="Y337" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z337" s="3">
+      <c r="Z337" s="4">
         <v>22.4</v>
       </c>
       <c r="AC337" s="4">
@@ -22490,13 +22490,13 @@
       <c r="W338" s="3">
         <v>27.648608920000001</v>
       </c>
-      <c r="X338" s="3">
+      <c r="X338" s="4">
         <v>17.5</v>
       </c>
-      <c r="Y338" s="3">
+      <c r="Y338" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z338" s="3">
+      <c r="Z338" s="4">
         <v>21.6</v>
       </c>
       <c r="AC338" s="4">
@@ -22576,13 +22576,13 @@
       <c r="W339" s="3">
         <v>27.31525062</v>
       </c>
-      <c r="X339" s="3">
+      <c r="X339" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y339" s="3">
+      <c r="Y339" s="4">
         <v>25.5</v>
       </c>
-      <c r="Z339" s="3">
+      <c r="Z339" s="4">
         <v>21.5</v>
       </c>
       <c r="AC339" s="4">
@@ -22662,13 +22662,13 @@
       <c r="W340" s="3">
         <v>26.607789889999999</v>
       </c>
-      <c r="X340" s="3">
+      <c r="X340" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="Y340" s="3">
+      <c r="Y340" s="4">
         <v>25.1</v>
       </c>
-      <c r="Z340" s="3">
+      <c r="Z340" s="4">
         <v>20.9</v>
       </c>
       <c r="AC340" s="4">
@@ -22748,13 +22748,13 @@
       <c r="W341" s="3">
         <v>25.710536919999999</v>
       </c>
-      <c r="X341" s="3">
+      <c r="X341" s="4">
         <v>16.2</v>
       </c>
-      <c r="Y341" s="3">
+      <c r="Y341" s="4">
         <v>24</v>
       </c>
-      <c r="Z341" s="3">
+      <c r="Z341" s="4">
         <v>20.100000000000001</v>
       </c>
       <c r="AC341" s="4">
@@ -22837,13 +22837,13 @@
       <c r="W342" s="3">
         <v>24.302005489999999</v>
       </c>
-      <c r="X342" s="3">
+      <c r="X342" s="4">
         <v>13.6</v>
       </c>
-      <c r="Y342" s="3">
+      <c r="Y342" s="4">
         <v>22</v>
       </c>
-      <c r="Z342" s="3">
+      <c r="Z342" s="4">
         <v>17.8</v>
       </c>
       <c r="AC342" s="4">
@@ -22926,14 +22926,14 @@
       <c r="W343" s="3">
         <v>23.599720770000001</v>
       </c>
-      <c r="X343" s="3">
+      <c r="X343" s="4">
         <v>12</v>
       </c>
-      <c r="Y343" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z343" s="3">
-        <v>6</v>
+      <c r="Y343" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="Z343" s="4">
+        <v>16.899999999999999</v>
       </c>
       <c r="AC343" s="4">
         <v>2.624485</v>
@@ -23015,13 +23015,13 @@
       <c r="W344" s="3">
         <v>23.03934241</v>
       </c>
-      <c r="X344" s="3">
+      <c r="X344" s="4">
         <v>11.2</v>
       </c>
-      <c r="Y344" s="3">
+      <c r="Y344" s="4">
         <v>20.7</v>
       </c>
-      <c r="Z344" s="3">
+      <c r="Z344" s="4">
         <v>16</v>
       </c>
       <c r="AC344" s="4">
@@ -23104,13 +23104,13 @@
       <c r="W345" s="3">
         <v>26.197842869999999</v>
       </c>
-      <c r="X345" s="3">
+      <c r="X345" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y345" s="3">
+      <c r="Y345" s="4">
         <v>24.4</v>
       </c>
-      <c r="Z345" s="3">
+      <c r="Z345" s="4">
         <v>18.3</v>
       </c>
       <c r="AC345" s="4">
@@ -23193,13 +23193,13 @@
       <c r="W346" s="3">
         <v>27.70132035</v>
       </c>
-      <c r="X346" s="3">
+      <c r="X346" s="4">
         <v>14.3</v>
       </c>
-      <c r="Y346" s="3">
+      <c r="Y346" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z346" s="3">
+      <c r="Z346" s="4">
         <v>20.100000000000001</v>
       </c>
       <c r="AC346" s="4">
@@ -23282,13 +23282,13 @@
       <c r="W347" s="3">
         <v>31.085451169999999</v>
       </c>
-      <c r="X347" s="3">
+      <c r="X347" s="4">
         <v>15.6</v>
       </c>
-      <c r="Y347" s="3">
+      <c r="Y347" s="4">
         <v>28.8</v>
       </c>
-      <c r="Z347" s="3">
+      <c r="Z347" s="4">
         <v>22.2</v>
       </c>
       <c r="AC347" s="4">
@@ -23371,13 +23371,13 @@
       <c r="W348" s="3">
         <v>31.259999260000001</v>
       </c>
-      <c r="X348" s="3">
+      <c r="X348" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y348" s="3">
+      <c r="Y348" s="4">
         <v>29.3</v>
       </c>
-      <c r="Z348" s="3">
+      <c r="Z348" s="4">
         <v>23.5</v>
       </c>
       <c r="AC348" s="4">
@@ -23460,13 +23460,13 @@
       <c r="W349" s="3">
         <v>28.15838488</v>
       </c>
-      <c r="X349" s="3">
+      <c r="X349" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y349" s="3">
+      <c r="Y349" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z349" s="3">
+      <c r="Z349" s="4">
         <v>22.4</v>
       </c>
       <c r="AC349" s="4">
@@ -23549,13 +23549,13 @@
       <c r="W350" s="3">
         <v>28.609892469999998</v>
       </c>
-      <c r="X350" s="3">
+      <c r="X350" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y350" s="3">
+      <c r="Y350" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z350" s="3">
+      <c r="Z350" s="4">
         <v>22.2</v>
       </c>
       <c r="AC350" s="4">
@@ -23638,13 +23638,13 @@
       <c r="W351" s="3">
         <v>28.214568249999999</v>
       </c>
-      <c r="X351" s="3">
+      <c r="X351" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y351" s="3">
+      <c r="Y351" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z351" s="3">
+      <c r="Z351" s="4">
         <v>22.2</v>
       </c>
       <c r="AC351" s="4">
@@ -23727,13 +23727,13 @@
       <c r="W352" s="3">
         <v>26.9656126</v>
       </c>
-      <c r="X352" s="3">
+      <c r="X352" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y352" s="3">
+      <c r="Y352" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z352" s="3">
+      <c r="Z352" s="4">
         <v>22</v>
       </c>
       <c r="AC352" s="4">
@@ -23816,13 +23816,13 @@
       <c r="W353" s="3">
         <v>27.356735369999999</v>
       </c>
-      <c r="X353" s="3">
+      <c r="X353" s="4">
         <v>16.5</v>
       </c>
-      <c r="Y353" s="3">
+      <c r="Y353" s="4">
         <v>25.6</v>
       </c>
-      <c r="Z353" s="3">
+      <c r="Z353" s="4">
         <v>21.1</v>
       </c>
       <c r="AC353" s="4">
@@ -23905,13 +23905,13 @@
       <c r="W354" s="3">
         <v>26.50107255</v>
       </c>
-      <c r="X354" s="3">
+      <c r="X354" s="4">
         <v>13</v>
       </c>
-      <c r="Y354" s="3">
+      <c r="Y354" s="4">
         <v>25.1</v>
       </c>
-      <c r="Z354" s="3">
+      <c r="Z354" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="AC354" s="4">
@@ -23994,13 +23994,13 @@
       <c r="W355" s="3">
         <v>23.363486909999999</v>
       </c>
-      <c r="X355" s="3">
+      <c r="X355" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y355" s="3">
+      <c r="Y355" s="4">
         <v>21.9</v>
       </c>
-      <c r="Z355" s="3">
+      <c r="Z355" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="AC355" s="4">
@@ -24083,13 +24083,13 @@
       <c r="W356" s="3">
         <v>24.439402510000001</v>
       </c>
-      <c r="X356" s="3">
+      <c r="X356" s="4">
         <v>10.4</v>
       </c>
-      <c r="Y356" s="3">
+      <c r="Y356" s="4">
         <v>22</v>
       </c>
-      <c r="Z356" s="3">
+      <c r="Z356" s="4">
         <v>16.2</v>
       </c>
       <c r="AC356" s="4">
@@ -24172,13 +24172,13 @@
       <c r="W357" s="3">
         <v>24.354145519999999</v>
       </c>
-      <c r="X357" s="3">
+      <c r="X357" s="4">
         <v>11</v>
       </c>
-      <c r="Y357" s="3">
+      <c r="Y357" s="4">
         <v>22.7</v>
       </c>
-      <c r="Z357" s="3">
+      <c r="Z357" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC357" s="4">
@@ -24261,13 +24261,13 @@
       <c r="W358" s="3">
         <v>28.247221069999998</v>
       </c>
-      <c r="X358" s="3">
+      <c r="X358" s="4">
         <v>14.8</v>
       </c>
-      <c r="Y358" s="3">
+      <c r="Y358" s="4">
         <v>27</v>
       </c>
-      <c r="Z358" s="3">
+      <c r="Z358" s="4">
         <v>20.9</v>
       </c>
       <c r="AC358" s="4">
@@ -24350,13 +24350,13 @@
       <c r="W359" s="3">
         <v>30.457623000000002</v>
       </c>
-      <c r="X359" s="3">
+      <c r="X359" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y359" s="3">
+      <c r="Y359" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z359" s="3">
+      <c r="Z359" s="4">
         <v>22.1</v>
       </c>
       <c r="AC359" s="4">
@@ -24439,13 +24439,13 @@
       <c r="W360" s="3">
         <v>30.848693059999999</v>
       </c>
-      <c r="X360" s="3">
+      <c r="X360" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="Y360" s="3">
+      <c r="Y360" s="4">
         <v>29</v>
       </c>
-      <c r="Z360" s="3">
+      <c r="Z360" s="4">
         <v>24.2</v>
       </c>
       <c r="AC360" s="4">
@@ -24528,13 +24528,13 @@
       <c r="W361" s="3">
         <v>28.8628027</v>
       </c>
-      <c r="X361" s="3">
+      <c r="X361" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y361" s="3">
+      <c r="Y361" s="4">
         <v>27.3</v>
       </c>
-      <c r="Z361" s="3">
+      <c r="Z361" s="4">
         <v>23</v>
       </c>
       <c r="AC361" s="4">
@@ -24617,13 +24617,13 @@
       <c r="W362" s="3">
         <v>27.837309179999998</v>
       </c>
-      <c r="X362" s="3">
+      <c r="X362" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y362" s="3">
+      <c r="Y362" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z362" s="3">
+      <c r="Z362" s="4">
         <v>22.5</v>
       </c>
       <c r="AC362" s="4">
@@ -24706,13 +24706,13 @@
       <c r="W363" s="3">
         <v>27.588372029999999</v>
       </c>
-      <c r="X363" s="3">
+      <c r="X363" s="4">
         <v>19</v>
       </c>
-      <c r="Y363" s="3">
+      <c r="Y363" s="4">
         <v>26</v>
       </c>
-      <c r="Z363" s="3">
+      <c r="Z363" s="4">
         <v>22.5</v>
       </c>
       <c r="AC363" s="4">
@@ -24795,13 +24795,13 @@
       <c r="W364" s="3">
         <v>26.846498019999999</v>
       </c>
-      <c r="X364" s="3">
+      <c r="X364" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y364" s="3">
+      <c r="Y364" s="4">
         <v>25.6</v>
       </c>
-      <c r="Z364" s="3">
+      <c r="Z364" s="4">
         <v>22</v>
       </c>
       <c r="AC364" s="4">
@@ -24884,13 +24884,13 @@
       <c r="W365" s="3">
         <v>26.259213339999999</v>
       </c>
-      <c r="X365" s="3">
+      <c r="X365" s="4">
         <v>14.2</v>
       </c>
-      <c r="Y365" s="3">
+      <c r="Y365" s="4">
         <v>24.5</v>
       </c>
-      <c r="Z365" s="3">
+      <c r="Z365" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AC365" s="4">
@@ -24973,13 +24973,13 @@
       <c r="W366" s="3">
         <v>24.19010291</v>
       </c>
-      <c r="X366" s="3">
+      <c r="X366" s="4">
         <v>14</v>
       </c>
-      <c r="Y366" s="3">
+      <c r="Y366" s="4">
         <v>21.9</v>
       </c>
-      <c r="Z366" s="3">
+      <c r="Z366" s="4">
         <v>18</v>
       </c>
       <c r="AC366" s="4">
@@ -25062,13 +25062,13 @@
       <c r="W367" s="3">
         <v>23.416148419999999</v>
       </c>
-      <c r="X367" s="3">
+      <c r="X367" s="4">
         <v>11.5</v>
       </c>
-      <c r="Y367" s="3">
+      <c r="Y367" s="4">
         <v>21.5</v>
       </c>
-      <c r="Z367" s="3">
+      <c r="Z367" s="4">
         <v>16.5</v>
       </c>
       <c r="AC367" s="4">
@@ -25151,13 +25151,13 @@
       <c r="W368" s="3">
         <v>23.957647959999999</v>
       </c>
-      <c r="X368" s="3">
+      <c r="X368" s="4">
         <v>12</v>
       </c>
-      <c r="Y368" s="3">
+      <c r="Y368" s="4">
         <v>21.9</v>
       </c>
-      <c r="Z368" s="3">
+      <c r="Z368" s="4">
         <v>17</v>
       </c>
       <c r="AC368" s="4">
@@ -25240,13 +25240,13 @@
       <c r="W369" s="3">
         <v>24.46161549</v>
       </c>
-      <c r="X369" s="3">
+      <c r="X369" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y369" s="3">
+      <c r="Y369" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z369" s="3">
+      <c r="Z369" s="4">
         <v>18.3</v>
       </c>
       <c r="AC369" s="4">
@@ -25329,13 +25329,13 @@
       <c r="W370" s="3">
         <v>28.61613547</v>
       </c>
-      <c r="X370" s="3">
+      <c r="X370" s="4">
         <v>15.8</v>
       </c>
-      <c r="Y370" s="3">
+      <c r="Y370" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z370" s="3">
+      <c r="Z370" s="4">
         <v>21.8</v>
       </c>
       <c r="AC370" s="4">
@@ -25418,13 +25418,13 @@
       <c r="W371" s="3">
         <v>30.782715230000001</v>
       </c>
-      <c r="X371" s="3">
+      <c r="X371" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y371" s="3">
+      <c r="Y371" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z371" s="3">
+      <c r="Z371" s="4">
         <v>23.1</v>
       </c>
       <c r="AC371" s="4">
@@ -25507,13 +25507,13 @@
       <c r="W372" s="3">
         <v>32.843554040000001</v>
       </c>
-      <c r="X372" s="3">
+      <c r="X372" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y372" s="3">
+      <c r="Y372" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z372" s="3">
+      <c r="Z372" s="4">
         <v>23.2</v>
       </c>
       <c r="AC372" s="4">
@@ -25596,13 +25596,13 @@
       <c r="W373" s="3">
         <v>30.005248120000001</v>
       </c>
-      <c r="X373" s="3">
+      <c r="X373" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y373" s="3">
+      <c r="Y373" s="4">
         <v>25.6</v>
       </c>
-      <c r="Z373" s="3">
+      <c r="Z373" s="4">
         <v>22.3</v>
       </c>
       <c r="AC373" s="4">
@@ -25685,13 +25685,13 @@
       <c r="W374" s="3">
         <v>28.61163444</v>
       </c>
-      <c r="X374" s="3">
+      <c r="X374" s="4">
         <v>19</v>
       </c>
-      <c r="Y374" s="3">
+      <c r="Y374" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z374" s="3">
+      <c r="Z374" s="4">
         <v>22.8</v>
       </c>
       <c r="AC374" s="4">
@@ -25774,13 +25774,13 @@
       <c r="W375" s="3">
         <v>28.8183638</v>
       </c>
-      <c r="X375" s="3">
+      <c r="X375" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y375" s="3">
+      <c r="Y375" s="4">
         <v>27</v>
       </c>
-      <c r="Z375" s="3">
+      <c r="Z375" s="4">
         <v>22.9</v>
       </c>
       <c r="AC375" s="4">
@@ -25863,13 +25863,13 @@
       <c r="W376" s="3">
         <v>27.314227989999999</v>
       </c>
-      <c r="X376" s="3">
+      <c r="X376" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y376" s="3">
+      <c r="Y376" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z376" s="3">
+      <c r="Z376" s="4">
         <v>22.1</v>
       </c>
       <c r="AC376" s="4">
@@ -25952,13 +25952,13 @@
       <c r="W377" s="3">
         <v>27.04536259</v>
       </c>
-      <c r="X377" s="3">
+      <c r="X377" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y377" s="3">
+      <c r="Y377" s="4">
         <v>24.2</v>
       </c>
-      <c r="Z377" s="3">
+      <c r="Z377" s="4">
         <v>20.5</v>
       </c>
       <c r="AC377" s="4">
@@ -26041,13 +26041,13 @@
       <c r="W378" s="3">
         <v>26.61297884</v>
       </c>
-      <c r="X378" s="3">
+      <c r="X378" s="4">
         <v>13.3</v>
       </c>
-      <c r="Y378" s="3">
+      <c r="Y378" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z378" s="3">
+      <c r="Z378" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="AC378" s="4">
@@ -26130,13 +26130,13 @@
       <c r="W379" s="3">
         <v>24.76107644</v>
       </c>
-      <c r="X379" s="3">
+      <c r="X379" s="4">
         <v>11.2</v>
       </c>
-      <c r="Y379" s="3">
+      <c r="Y379" s="4">
         <v>23.3</v>
       </c>
-      <c r="Z379" s="3">
+      <c r="Z379" s="4">
         <v>17.3</v>
       </c>
       <c r="AC379" s="4">
@@ -26219,13 +26219,13 @@
       <c r="W380" s="3">
         <v>24.01495289</v>
       </c>
-      <c r="X380" s="3">
+      <c r="X380" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="Y380" s="3">
+      <c r="Y380" s="4">
         <v>21.9</v>
       </c>
-      <c r="Z380" s="3">
+      <c r="Z380" s="4">
         <v>16.100000000000001</v>
       </c>
       <c r="AC380" s="4">
@@ -26308,13 +26308,13 @@
       <c r="W381" s="3">
         <v>25.549163679999999</v>
       </c>
-      <c r="X381" s="3">
+      <c r="X381" s="4">
         <v>13.9</v>
       </c>
-      <c r="Y381" s="3">
+      <c r="Y381" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z381" s="3">
+      <c r="Z381" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="AC381" s="4">
@@ -26397,13 +26397,13 @@
       <c r="W382" s="3">
         <v>28.98008377</v>
       </c>
-      <c r="X382" s="3">
+      <c r="X382" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y382" s="3">
+      <c r="Y382" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z382" s="3">
+      <c r="Z382" s="4">
         <v>22.5</v>
       </c>
       <c r="AC382" s="4">
@@ -26486,13 +26486,13 @@
       <c r="W383" s="3">
         <v>32.138821849999999</v>
       </c>
-      <c r="X383" s="3">
+      <c r="X383" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y383" s="3">
+      <c r="Y383" s="4">
         <v>30.7</v>
       </c>
-      <c r="Z383" s="3">
+      <c r="Z383" s="4">
         <v>24.5</v>
       </c>
       <c r="AC383" s="4">
@@ -26575,13 +26575,13 @@
       <c r="W384" s="3">
         <v>30.487066469999998</v>
       </c>
-      <c r="X384" s="3">
+      <c r="X384" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y384" s="3">
+      <c r="Y384" s="4">
         <v>29.1</v>
       </c>
-      <c r="Z384" s="3">
+      <c r="Z384" s="4">
         <v>23.5</v>
       </c>
       <c r="AC384" s="4">
@@ -26664,13 +26664,13 @@
       <c r="W385" s="3">
         <v>29.078991800000001</v>
       </c>
-      <c r="X385" s="3">
+      <c r="X385" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y385" s="3">
+      <c r="Y385" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z385" s="3">
+      <c r="Z385" s="4">
         <v>22.9</v>
       </c>
       <c r="AC385" s="4">
@@ -26753,13 +26753,13 @@
       <c r="W386" s="3">
         <v>28.390004900000001</v>
       </c>
-      <c r="X386" s="3">
+      <c r="X386" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y386" s="3">
+      <c r="Y386" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z386" s="3">
+      <c r="Z386" s="4">
         <v>21.9</v>
       </c>
       <c r="AC386" s="4">
@@ -26842,13 +26842,13 @@
       <c r="W387" s="3">
         <v>29.181452199999999</v>
       </c>
-      <c r="X387" s="3">
+      <c r="X387" s="4">
         <v>18</v>
       </c>
-      <c r="Y387" s="3">
+      <c r="Y387" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z387" s="3">
+      <c r="Z387" s="4">
         <v>22.3</v>
       </c>
       <c r="AC387" s="4">
@@ -26931,13 +26931,13 @@
       <c r="W388" s="3">
         <v>27.349862689999998</v>
       </c>
-      <c r="X388" s="3">
+      <c r="X388" s="4">
         <v>20.7</v>
       </c>
-      <c r="Y388" s="3">
+      <c r="Y388" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z388" s="3">
+      <c r="Z388" s="4">
         <v>23.2</v>
       </c>
       <c r="AC388" s="4">
@@ -27020,13 +27020,13 @@
       <c r="W389" s="3">
         <v>26.55843389</v>
       </c>
-      <c r="X389" s="3">
+      <c r="X389" s="4">
         <v>14.4</v>
       </c>
-      <c r="Y389" s="3">
+      <c r="Y389" s="4">
         <v>24.6</v>
       </c>
-      <c r="Z389" s="3">
+      <c r="Z389" s="4">
         <v>19.5</v>
       </c>
       <c r="AC389" s="4">
@@ -27109,13 +27109,13 @@
       <c r="W390" s="3">
         <v>25.811043609999999</v>
       </c>
-      <c r="X390" s="3">
+      <c r="X390" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y390" s="3">
+      <c r="Y390" s="4">
         <v>24.3</v>
       </c>
-      <c r="Z390" s="3">
+      <c r="Z390" s="4">
         <v>18.8</v>
       </c>
       <c r="AC390" s="4">
@@ -27198,13 +27198,13 @@
       <c r="W391" s="3">
         <v>23.229475839999999</v>
       </c>
-      <c r="X391" s="3">
+      <c r="X391" s="4">
         <v>11.8</v>
       </c>
-      <c r="Y391" s="3">
+      <c r="Y391" s="4">
         <v>21.2</v>
       </c>
-      <c r="Z391" s="3">
+      <c r="Z391" s="4">
         <v>16.5</v>
       </c>
       <c r="AC391" s="4">
@@ -27287,13 +27287,13 @@
       <c r="W392" s="3">
         <v>22.930919159999998</v>
       </c>
-      <c r="X392" s="3">
+      <c r="X392" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y392" s="3">
+      <c r="Y392" s="4">
         <v>20.6</v>
       </c>
-      <c r="Z392" s="3">
+      <c r="Z392" s="4">
         <v>16.2</v>
       </c>
       <c r="AC392" s="4">
@@ -27376,13 +27376,13 @@
       <c r="W393" s="3">
         <v>27.560183259999999</v>
       </c>
-      <c r="X393" s="3">
+      <c r="X393" s="4">
         <v>13</v>
       </c>
-      <c r="Y393" s="3">
+      <c r="Y393" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z393" s="3">
+      <c r="Z393" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AC393" s="4">
@@ -27465,13 +27465,13 @@
       <c r="W394" s="3">
         <v>29.749061050000002</v>
       </c>
-      <c r="X394" s="3">
+      <c r="X394" s="4">
         <v>15.4</v>
       </c>
-      <c r="Y394" s="3">
+      <c r="Y394" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z394" s="3">
+      <c r="Z394" s="4">
         <v>21.7</v>
       </c>
       <c r="AC394" s="4">
@@ -27554,13 +27554,13 @@
       <c r="W395" s="3">
         <v>32.139621650000002</v>
       </c>
-      <c r="X395" s="3">
+      <c r="X395" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y395" s="3">
+      <c r="Y395" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z395" s="3">
+      <c r="Z395" s="4">
         <v>23.4</v>
       </c>
       <c r="AC395" s="4">
@@ -27643,13 +27643,13 @@
       <c r="W396" s="3">
         <v>30.82839311</v>
       </c>
-      <c r="X396" s="3">
+      <c r="X396" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y396" s="3">
+      <c r="Y396" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z396" s="3">
+      <c r="Z396" s="4">
         <v>23.3</v>
       </c>
       <c r="AC396" s="4">
@@ -27732,13 +27732,13 @@
       <c r="W397" s="3">
         <v>27.425521249999999</v>
       </c>
-      <c r="X397" s="3">
+      <c r="X397" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y397" s="3">
+      <c r="Y397" s="4">
         <v>25.6</v>
       </c>
-      <c r="Z397" s="3">
+      <c r="Z397" s="4">
         <v>21.7</v>
       </c>
       <c r="AC397" s="4">
@@ -27821,13 +27821,13 @@
       <c r="W398" s="3">
         <v>28.688800130000001</v>
       </c>
-      <c r="X398" s="3">
+      <c r="X398" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="Y398" s="3">
+      <c r="Y398" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z398" s="3">
+      <c r="Z398" s="4">
         <v>22.3</v>
       </c>
       <c r="AC398" s="4">
@@ -27910,13 +27910,13 @@
       <c r="W399" s="3">
         <v>28.825301190000001</v>
       </c>
-      <c r="X399" s="3">
+      <c r="X399" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y399" s="3">
+      <c r="Y399" s="4">
         <v>27.3</v>
       </c>
-      <c r="Z399" s="3">
+      <c r="Z399" s="4">
         <v>23.1</v>
       </c>
       <c r="AC399" s="4">
@@ -27999,13 +27999,13 @@
       <c r="W400" s="3">
         <v>27.445738909999999</v>
       </c>
-      <c r="X400" s="3">
+      <c r="X400" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y400" s="3">
+      <c r="Y400" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z400" s="3">
+      <c r="Z400" s="4">
         <v>21.8</v>
       </c>
       <c r="AC400" s="4">
@@ -28088,13 +28088,13 @@
       <c r="W401" s="3">
         <v>27.471716919999999</v>
       </c>
-      <c r="X401" s="3">
+      <c r="X401" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y401" s="3">
+      <c r="Y401" s="4">
         <v>26</v>
       </c>
-      <c r="Z401" s="3">
+      <c r="Z401" s="4">
         <v>21.4</v>
       </c>
       <c r="AC401" s="4">
@@ -28177,13 +28177,13 @@
       <c r="W402" s="3">
         <v>25.959413049999998</v>
       </c>
-      <c r="X402" s="3">
+      <c r="X402" s="4">
         <v>13</v>
       </c>
-      <c r="Y402" s="3">
+      <c r="Y402" s="4">
         <v>24.6</v>
       </c>
-      <c r="Z402" s="3">
+      <c r="Z402" s="4">
         <v>18.8</v>
       </c>
       <c r="AC402" s="4">
@@ -28266,13 +28266,13 @@
       <c r="W403" s="3">
         <v>23.37726554</v>
       </c>
-      <c r="X403" s="3">
+      <c r="X403" s="4">
         <v>10.9</v>
       </c>
-      <c r="Y403" s="3">
+      <c r="Y403" s="4">
         <v>21.8</v>
       </c>
-      <c r="Z403" s="3">
+      <c r="Z403" s="4">
         <v>16.399999999999999</v>
       </c>
       <c r="AC403" s="4">
@@ -28355,13 +28355,13 @@
       <c r="W404" s="3">
         <v>23.509052919999998</v>
       </c>
-      <c r="X404" s="3">
+      <c r="X404" s="4">
         <v>11</v>
       </c>
-      <c r="Y404" s="3">
+      <c r="Y404" s="4">
         <v>21.2</v>
       </c>
-      <c r="Z404" s="3">
+      <c r="Z404" s="4">
         <v>16.100000000000001</v>
       </c>
       <c r="AC404" s="4">
@@ -28444,13 +28444,13 @@
       <c r="W405" s="3">
         <v>26.15852542</v>
       </c>
-      <c r="X405" s="3">
+      <c r="X405" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y405" s="3">
+      <c r="Y405" s="4">
         <v>24.6</v>
       </c>
-      <c r="Z405" s="3">
+      <c r="Z405" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="AC405" s="4">
@@ -28533,13 +28533,13 @@
       <c r="W406" s="3">
         <v>29.278586820000001</v>
       </c>
-      <c r="X406" s="3">
+      <c r="X406" s="4">
         <v>15.7</v>
       </c>
-      <c r="Y406" s="3">
+      <c r="Y406" s="4">
         <v>27.7</v>
       </c>
-      <c r="Z406" s="3">
+      <c r="Z406" s="4">
         <v>21.7</v>
       </c>
       <c r="AC406" s="4">
@@ -28622,13 +28622,13 @@
       <c r="W407" s="3">
         <v>32.338951299999998</v>
       </c>
-      <c r="X407" s="3">
+      <c r="X407" s="4">
         <v>15.7</v>
       </c>
-      <c r="Y407" s="3">
+      <c r="Y407" s="4">
         <v>29.9</v>
       </c>
-      <c r="Z407" s="3">
+      <c r="Z407" s="4">
         <v>22.8</v>
       </c>
       <c r="AC407" s="4">
@@ -28711,13 +28711,13 @@
       <c r="W408" s="3">
         <v>29.95112202</v>
       </c>
-      <c r="X408" s="3">
+      <c r="X408" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="Y408" s="3">
+      <c r="Y408" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z408" s="3">
+      <c r="Z408" s="4">
         <v>23.7</v>
       </c>
       <c r="AC408" s="4">
@@ -28800,13 +28800,13 @@
       <c r="W409" s="3">
         <v>28.629044960000002</v>
       </c>
-      <c r="X409" s="3">
+      <c r="X409" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y409" s="3">
+      <c r="Y409" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z409" s="3">
+      <c r="Z409" s="4">
         <v>22.3</v>
       </c>
       <c r="AC409" s="4">
@@ -28889,13 +28889,13 @@
       <c r="W410" s="3">
         <v>28.904810779999998</v>
       </c>
-      <c r="X410" s="3">
+      <c r="X410" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y410" s="3">
+      <c r="Y410" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z410" s="3">
+      <c r="Z410" s="4">
         <v>23</v>
       </c>
       <c r="AC410" s="4">
@@ -28978,13 +28978,13 @@
       <c r="W411" s="3">
         <v>30.02055884</v>
       </c>
-      <c r="X411" s="3">
+      <c r="X411" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y411" s="3">
+      <c r="Y411" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z411" s="3">
+      <c r="Z411" s="4">
         <v>23.1</v>
       </c>
       <c r="AC411" s="4">
@@ -29067,13 +29067,13 @@
       <c r="W412" s="3">
         <v>27.397247419999999</v>
       </c>
-      <c r="X412" s="3">
+      <c r="X412" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="Y412" s="3">
+      <c r="Y412" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z412" s="3">
+      <c r="Z412" s="4">
         <v>21.9</v>
       </c>
       <c r="AC412" s="4">
@@ -29156,13 +29156,13 @@
       <c r="W413" s="3">
         <v>27.583673130000001</v>
       </c>
-      <c r="X413" s="3">
+      <c r="X413" s="4">
         <v>15.5</v>
       </c>
-      <c r="Y413" s="3">
+      <c r="Y413" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z413" s="3">
+      <c r="Z413" s="4">
         <v>20.7</v>
       </c>
       <c r="AC413" s="4">
@@ -29245,13 +29245,13 @@
       <c r="W414" s="3">
         <v>26.16435328</v>
       </c>
-      <c r="X414" s="3">
+      <c r="X414" s="4">
         <v>12.6</v>
       </c>
-      <c r="Y414" s="3">
+      <c r="Y414" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z414" s="3">
+      <c r="Z414" s="4">
         <v>18.7</v>
       </c>
       <c r="AC414" s="4">
@@ -29334,13 +29334,13 @@
       <c r="W415" s="3">
         <v>23.379241440000001</v>
       </c>
-      <c r="X415" s="3">
+      <c r="X415" s="4">
         <v>10.7</v>
       </c>
-      <c r="Y415" s="3">
+      <c r="Y415" s="4">
         <v>21.1</v>
       </c>
-      <c r="Z415" s="3">
+      <c r="Z415" s="4">
         <v>15.9</v>
       </c>
       <c r="AC415" s="4">
@@ -29423,13 +29423,13 @@
       <c r="W416" s="3">
         <v>22.819780309999999</v>
       </c>
-      <c r="X416" s="3">
+      <c r="X416" s="4">
         <v>10.3</v>
       </c>
-      <c r="Y416" s="3">
+      <c r="Y416" s="4">
         <v>20.7</v>
       </c>
-      <c r="Z416" s="3">
+      <c r="Z416" s="4">
         <v>15.5</v>
       </c>
       <c r="AC416" s="4">
@@ -29512,13 +29512,13 @@
       <c r="W417" s="3">
         <v>24.90067127</v>
       </c>
-      <c r="X417" s="3">
+      <c r="X417" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y417" s="3">
+      <c r="Y417" s="4">
         <v>23.6</v>
       </c>
-      <c r="Z417" s="3">
+      <c r="Z417" s="4">
         <v>18</v>
       </c>
       <c r="AC417" s="4">
@@ -29601,13 +29601,13 @@
       <c r="W418" s="3">
         <v>28.54655442</v>
       </c>
-      <c r="X418" s="3">
+      <c r="X418" s="4">
         <v>14.5</v>
       </c>
-      <c r="Y418" s="3">
+      <c r="Y418" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z418" s="3">
+      <c r="Z418" s="4">
         <v>20.9</v>
       </c>
       <c r="AC418" s="4">
@@ -29690,13 +29690,13 @@
       <c r="W419" s="3">
         <v>30.601072550000001</v>
       </c>
-      <c r="X419" s="3">
+      <c r="X419" s="4">
         <v>15.1</v>
       </c>
-      <c r="Y419" s="3">
+      <c r="Y419" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z419" s="3">
+      <c r="Z419" s="4">
         <v>21.9</v>
       </c>
       <c r="AC419" s="4">
@@ -29779,13 +29779,13 @@
       <c r="W420" s="3">
         <v>32.290295229999998</v>
       </c>
-      <c r="X420" s="3">
+      <c r="X420" s="4">
         <v>19.3</v>
       </c>
-      <c r="Y420" s="3">
+      <c r="Y420" s="4">
         <v>30.8</v>
       </c>
-      <c r="Z420" s="3">
+      <c r="Z420" s="4">
         <v>25.1</v>
       </c>
       <c r="AC420" s="4">
@@ -29868,13 +29868,13 @@
       <c r="W421" s="3">
         <v>28.651192290000001</v>
       </c>
-      <c r="X421" s="3">
+      <c r="X421" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y421" s="3">
+      <c r="Y421" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z421" s="3">
+      <c r="Z421" s="4">
         <v>22.1</v>
       </c>
       <c r="AC421" s="4">
@@ -29957,13 +29957,13 @@
       <c r="W422" s="3">
         <v>29.838537070000001</v>
       </c>
-      <c r="X422" s="3">
+      <c r="X422" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y422" s="3">
+      <c r="Y422" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z422" s="3">
+      <c r="Z422" s="4">
         <v>23</v>
       </c>
       <c r="AC422" s="4">
@@ -30046,13 +30046,13 @@
       <c r="W423" s="3">
         <v>28.4553318</v>
       </c>
-      <c r="X423" s="3">
+      <c r="X423" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y423" s="3">
+      <c r="Y423" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z423" s="3">
+      <c r="Z423" s="4">
         <v>22.4</v>
       </c>
       <c r="AC423" s="4">
@@ -30135,13 +30135,13 @@
       <c r="W424" s="3">
         <v>28.021789500000001</v>
       </c>
-      <c r="X424" s="3">
+      <c r="X424" s="4">
         <v>17</v>
       </c>
-      <c r="Y424" s="3">
+      <c r="Y424" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z424" s="3">
+      <c r="Z424" s="4">
         <v>21.5</v>
       </c>
       <c r="AC424" s="4">
@@ -30224,13 +30224,13 @@
       <c r="W425" s="3">
         <v>26.634930149999999</v>
       </c>
-      <c r="X425" s="3">
+      <c r="X425" s="4">
         <v>15.9</v>
       </c>
-      <c r="Y425" s="3">
+      <c r="Y425" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z425" s="3">
+      <c r="Z425" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="AC425" s="4">
@@ -30313,13 +30313,13 @@
       <c r="W426" s="3">
         <v>24.617437330000001</v>
       </c>
-      <c r="X426" s="3">
+      <c r="X426" s="4">
         <v>12.6</v>
       </c>
-      <c r="Y426" s="3">
+      <c r="Y426" s="4">
         <v>22.8</v>
       </c>
-      <c r="Z426" s="3">
+      <c r="Z426" s="4">
         <v>17.7</v>
       </c>
       <c r="AC426" s="4">
@@ -30402,13 +30402,13 @@
       <c r="W427" s="3">
         <v>23.4581491</v>
       </c>
-      <c r="X427" s="3">
+      <c r="X427" s="4">
         <v>11.8</v>
       </c>
-      <c r="Y427" s="3">
+      <c r="Y427" s="4">
         <v>21.9</v>
       </c>
-      <c r="Z427" s="3">
+      <c r="Z427" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC427" s="4">
@@ -30491,13 +30491,13 @@
       <c r="W428" s="3">
         <v>23.74834817</v>
       </c>
-      <c r="X428" s="3">
+      <c r="X428" s="4">
         <v>11.8</v>
       </c>
-      <c r="Y428" s="3">
+      <c r="Y428" s="4">
         <v>21.6</v>
       </c>
-      <c r="Z428" s="3">
+      <c r="Z428" s="4">
         <v>16.7</v>
       </c>
       <c r="AC428" s="4">
@@ -30580,13 +30580,13 @@
       <c r="W429" s="3">
         <v>25.686732679999999</v>
       </c>
-      <c r="X429" s="3">
+      <c r="X429" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y429" s="3">
+      <c r="Y429" s="4">
         <v>24.6</v>
       </c>
-      <c r="Z429" s="3">
+      <c r="Z429" s="4">
         <v>18.5</v>
       </c>
       <c r="AC429" s="4">
@@ -30669,13 +30669,13 @@
       <c r="W430" s="3">
         <v>27.915493789999999</v>
       </c>
-      <c r="X430" s="3">
+      <c r="X430" s="4">
         <v>13.3</v>
       </c>
-      <c r="Y430" s="3">
+      <c r="Y430" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z430" s="3">
+      <c r="Z430" s="4">
         <v>20</v>
       </c>
       <c r="AC430" s="4">
@@ -30758,13 +30758,13 @@
       <c r="W431" s="3">
         <v>29.390216639999998</v>
       </c>
-      <c r="X431" s="3">
+      <c r="X431" s="4">
         <v>16.3</v>
       </c>
-      <c r="Y431" s="3">
+      <c r="Y431" s="4">
         <v>27</v>
       </c>
-      <c r="Z431" s="3">
+      <c r="Z431" s="4">
         <v>21.7</v>
       </c>
       <c r="AC431" s="4">
@@ -30847,13 +30847,13 @@
       <c r="W432" s="3">
         <v>31.98167411</v>
       </c>
-      <c r="X432" s="3">
+      <c r="X432" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y432" s="3">
+      <c r="Y432" s="4">
         <v>30.5</v>
       </c>
-      <c r="Z432" s="3">
+      <c r="Z432" s="4">
         <v>24.1</v>
       </c>
       <c r="AC432" s="4">
@@ -30936,13 +30936,13 @@
       <c r="W433" s="3">
         <v>29.310203139999999</v>
       </c>
-      <c r="X433" s="3">
+      <c r="X433" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y433" s="3">
+      <c r="Y433" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z433" s="3">
+      <c r="Z433" s="4">
         <v>23</v>
       </c>
       <c r="AC433" s="4">
@@ -31025,13 +31025,13 @@
       <c r="W434" s="3">
         <v>28.62609174</v>
       </c>
-      <c r="X434" s="3">
+      <c r="X434" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y434" s="3">
+      <c r="Y434" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z434" s="3">
+      <c r="Z434" s="4">
         <v>22.8</v>
       </c>
       <c r="AC434" s="4">
@@ -31114,13 +31114,13 @@
       <c r="W435" s="3">
         <v>28.220021639999999</v>
       </c>
-      <c r="X435" s="3">
+      <c r="X435" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y435" s="3">
+      <c r="Y435" s="4">
         <v>26.4</v>
       </c>
-      <c r="Z435" s="3">
+      <c r="Z435" s="4">
         <v>22.4</v>
       </c>
       <c r="AC435" s="4">
@@ -31203,13 +31203,13 @@
       <c r="W436" s="3">
         <v>28.293908630000001</v>
       </c>
-      <c r="X436" s="3">
+      <c r="X436" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y436" s="3">
+      <c r="Y436" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z436" s="3">
+      <c r="Z436" s="4">
         <v>22.9</v>
       </c>
       <c r="AC436" s="4">
@@ -31292,13 +31292,13 @@
       <c r="W437" s="3">
         <v>27.276915110000001</v>
       </c>
-      <c r="X437" s="3">
+      <c r="X437" s="4">
         <v>17</v>
       </c>
-      <c r="Y437" s="3">
+      <c r="Y437" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z437" s="3">
+      <c r="Z437" s="4">
         <v>21.7</v>
       </c>
       <c r="AC437" s="4">
@@ -31381,13 +31381,13 @@
       <c r="W438" s="3">
         <v>24.95635442</v>
       </c>
-      <c r="X438" s="3">
+      <c r="X438" s="4">
         <v>15.3</v>
       </c>
-      <c r="Y438" s="3">
+      <c r="Y438" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z438" s="3">
+      <c r="Z438" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AC438" s="4">
@@ -31470,13 +31470,13 @@
       <c r="W439" s="3">
         <v>24.591485209999998</v>
       </c>
-      <c r="X439" s="3">
+      <c r="X439" s="4">
         <v>12.9</v>
       </c>
-      <c r="Y439" s="3">
+      <c r="Y439" s="4">
         <v>23.6</v>
       </c>
-      <c r="Z439" s="3">
+      <c r="Z439" s="4">
         <v>18.3</v>
       </c>
       <c r="AC439" s="4">
@@ -31559,13 +31559,13 @@
       <c r="W440" s="3">
         <v>24.124754750000001</v>
       </c>
-      <c r="X440" s="3">
+      <c r="X440" s="4">
         <v>11.8</v>
       </c>
-      <c r="Y440" s="3">
+      <c r="Y440" s="4">
         <v>22</v>
       </c>
-      <c r="Z440" s="3">
+      <c r="Z440" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC440" s="4">
@@ -31648,13 +31648,13 @@
       <c r="W441" s="3">
         <v>25.267435949999999</v>
       </c>
-      <c r="X441" s="3">
+      <c r="X441" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y441" s="3">
+      <c r="Y441" s="4">
         <v>24.4</v>
       </c>
-      <c r="Z441" s="3">
+      <c r="Z441" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="AC441" s="4">
@@ -31737,13 +31737,13 @@
       <c r="W442" s="3">
         <v>27.394242420000001</v>
       </c>
-      <c r="X442" s="3">
+      <c r="X442" s="4">
         <v>14.3</v>
       </c>
-      <c r="Y442" s="3">
+      <c r="Y442" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z442" s="3">
+      <c r="Z442" s="4">
         <v>20.100000000000001</v>
       </c>
       <c r="AC442" s="4">
@@ -31826,13 +31826,13 @@
       <c r="W443" s="3">
         <v>29.801060530000001</v>
       </c>
-      <c r="X443" s="3">
+      <c r="X443" s="4">
         <v>14.9</v>
       </c>
-      <c r="Y443" s="3">
+      <c r="Y443" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z443" s="3">
+      <c r="Z443" s="4">
         <v>21.1</v>
       </c>
       <c r="AC443" s="4">
@@ -31915,13 +31915,13 @@
       <c r="W444" s="3">
         <v>30.347885869999999</v>
       </c>
-      <c r="X444" s="3">
+      <c r="X444" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y444" s="3">
+      <c r="Y444" s="4">
         <v>28.9</v>
       </c>
-      <c r="Z444" s="3">
+      <c r="Z444" s="4">
         <v>23.7</v>
       </c>
       <c r="AC444" s="4">
@@ -32004,13 +32004,13 @@
       <c r="W445" s="3">
         <v>29.810542470000001</v>
       </c>
-      <c r="X445" s="3">
+      <c r="X445" s="4">
         <v>17.3</v>
       </c>
-      <c r="Y445" s="3">
+      <c r="Y445" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z445" s="3">
+      <c r="Z445" s="4">
         <v>22.9</v>
       </c>
       <c r="AC445" s="4">
@@ -32093,13 +32093,13 @@
       <c r="W446" s="3">
         <v>29.91864211</v>
       </c>
-      <c r="X446" s="3">
+      <c r="X446" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y446" s="3">
+      <c r="Y446" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z446" s="3">
+      <c r="Z446" s="4">
         <v>23.3</v>
       </c>
       <c r="AC446" s="4">
@@ -32182,13 +32182,13 @@
       <c r="W447" s="3">
         <v>29.458362690000001</v>
       </c>
-      <c r="X447" s="3">
+      <c r="X447" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y447" s="3">
+      <c r="Y447" s="4">
         <v>27</v>
       </c>
-      <c r="Z447" s="3">
+      <c r="Z447" s="4">
         <v>22.6</v>
       </c>
       <c r="AC447" s="4">
@@ -32271,13 +32271,13 @@
       <c r="W448" s="3">
         <v>29.481163720000001</v>
       </c>
-      <c r="X448" s="3">
+      <c r="X448" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y448" s="3">
+      <c r="Y448" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z448" s="3">
+      <c r="Z448" s="4">
         <v>22.9</v>
       </c>
       <c r="AC448" s="4">
@@ -32360,13 +32360,13 @@
       <c r="W449" s="3">
         <v>28.92558043</v>
       </c>
-      <c r="X449" s="3">
+      <c r="X449" s="4">
         <v>15.9</v>
       </c>
-      <c r="Y449" s="3">
+      <c r="Y449" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z449" s="3">
+      <c r="Z449" s="4">
         <v>21.7</v>
       </c>
       <c r="AC449" s="4">
@@ -32449,13 +32449,13 @@
       <c r="W450" s="3">
         <v>27.908938259999999</v>
       </c>
-      <c r="X450" s="3">
+      <c r="X450" s="4">
         <v>14.5</v>
       </c>
-      <c r="Y450" s="3">
+      <c r="Y450" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z450" s="3">
+      <c r="Z450" s="4">
         <v>20.7</v>
       </c>
       <c r="AC450" s="4">
@@ -32538,13 +32538,13 @@
       <c r="W451" s="3">
         <v>25.431693989999999</v>
       </c>
-      <c r="X451" s="3">
+      <c r="X451" s="4">
         <v>12.4</v>
       </c>
-      <c r="Y451" s="3">
+      <c r="Y451" s="4">
         <v>24.9</v>
       </c>
-      <c r="Z451" s="3">
+      <c r="Z451" s="4">
         <v>18.7</v>
       </c>
       <c r="AC451" s="4">
@@ -32627,13 +32627,13 @@
       <c r="W452" s="3">
         <v>24.902494610000002</v>
       </c>
-      <c r="X452" s="3">
+      <c r="X452" s="4">
         <v>12.9</v>
       </c>
-      <c r="Y452" s="3">
+      <c r="Y452" s="4">
         <v>22.8</v>
       </c>
-      <c r="Z452" s="3">
+      <c r="Z452" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="AC452" s="4">
@@ -32716,13 +32716,13 @@
       <c r="W453" s="3">
         <v>24.89109595</v>
       </c>
-      <c r="X453" s="3">
+      <c r="X453" s="4">
         <v>11.9</v>
       </c>
-      <c r="Y453" s="3">
+      <c r="Y453" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z453" s="3">
+      <c r="Z453" s="4">
         <v>19.3</v>
       </c>
       <c r="AC453" s="4">
@@ -32805,13 +32805,13 @@
       <c r="W454" s="3">
         <v>29.7465914</v>
       </c>
-      <c r="X454" s="3">
+      <c r="X454" s="4">
         <v>15.7</v>
       </c>
-      <c r="Y454" s="3">
+      <c r="Y454" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z454" s="3">
+      <c r="Z454" s="4">
         <v>22.2</v>
       </c>
       <c r="AC454" s="4">
@@ -32894,13 +32894,13 @@
       <c r="W455" s="3">
         <v>30.84076447</v>
       </c>
-      <c r="X455" s="3">
+      <c r="X455" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y455" s="3">
+      <c r="Y455" s="4">
         <v>28.1</v>
       </c>
-      <c r="Z455" s="3">
+      <c r="Z455" s="4">
         <v>23</v>
       </c>
       <c r="AC455" s="4">
@@ -32983,13 +32983,13 @@
       <c r="W456" s="3">
         <v>32.838725689999997</v>
       </c>
-      <c r="X456" s="3">
+      <c r="X456" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y456" s="3">
+      <c r="Y456" s="4">
         <v>31.4</v>
       </c>
-      <c r="Z456" s="3">
+      <c r="Z456" s="4">
         <v>24.8</v>
       </c>
       <c r="AC456" s="4">
@@ -33072,13 +33072,13 @@
       <c r="W457" s="3">
         <v>29.353226450000001</v>
       </c>
-      <c r="X457" s="3">
+      <c r="X457" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y457" s="3">
+      <c r="Y457" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z457" s="3">
+      <c r="Z457" s="4">
         <v>22.9</v>
       </c>
       <c r="AC457" s="4">
@@ -33161,13 +33161,13 @@
       <c r="W458" s="3">
         <v>29.452973100000001</v>
       </c>
-      <c r="X458" s="3">
+      <c r="X458" s="4">
         <v>22</v>
       </c>
-      <c r="Y458" s="3">
+      <c r="Y458" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z458" s="3">
+      <c r="Z458" s="4">
         <v>24.7</v>
       </c>
       <c r="AC458" s="4">
@@ -33250,13 +33250,13 @@
       <c r="W459" s="3">
         <v>28.098707390000001</v>
       </c>
-      <c r="X459" s="3">
+      <c r="X459" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y459" s="3">
+      <c r="Y459" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z459" s="3">
+      <c r="Z459" s="4">
         <v>22.1</v>
       </c>
       <c r="AC459" s="4">
@@ -33339,13 +33339,13 @@
       <c r="W460" s="3">
         <v>27.571765920000001</v>
       </c>
-      <c r="X460" s="3">
+      <c r="X460" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y460" s="3">
+      <c r="Y460" s="4">
         <v>26.4</v>
       </c>
-      <c r="Z460" s="3">
+      <c r="Z460" s="4">
         <v>22.3</v>
       </c>
       <c r="AC460" s="4">
@@ -33428,13 +33428,13 @@
       <c r="W461" s="3">
         <v>27.207310939999999</v>
       </c>
-      <c r="X461" s="3">
+      <c r="X461" s="4">
         <v>15.7</v>
       </c>
-      <c r="Y461" s="3">
+      <c r="Y461" s="4">
         <v>25.3</v>
       </c>
-      <c r="Z461" s="3">
+      <c r="Z461" s="4">
         <v>20.5</v>
       </c>
       <c r="AC461" s="4">
@@ -33517,13 +33517,13 @@
       <c r="W462" s="3">
         <v>26.430253440000001</v>
       </c>
-      <c r="X462" s="3">
+      <c r="X462" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y462" s="3">
+      <c r="Y462" s="4">
         <v>24.2</v>
       </c>
-      <c r="Z462" s="3">
+      <c r="Z462" s="4">
         <v>18.7</v>
       </c>
       <c r="AC462" s="4">
@@ -33606,13 +33606,13 @@
       <c r="W463" s="3">
         <v>23.478397269999999</v>
       </c>
-      <c r="X463" s="3">
+      <c r="X463" s="4">
         <v>11.1</v>
       </c>
-      <c r="Y463" s="3">
+      <c r="Y463" s="4">
         <v>22</v>
       </c>
-      <c r="Z463" s="3">
+      <c r="Z463" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="AC463" s="4">
@@ -33695,13 +33695,13 @@
       <c r="W464" s="3">
         <v>24.394097250000002</v>
       </c>
-      <c r="X464" s="3">
+      <c r="X464" s="4">
         <v>11.6</v>
       </c>
-      <c r="Y464" s="3">
+      <c r="Y464" s="4">
         <v>22.3</v>
       </c>
-      <c r="Z464" s="3">
+      <c r="Z464" s="4">
         <v>17</v>
       </c>
       <c r="AC464" s="4">
@@ -33784,13 +33784,13 @@
       <c r="W465" s="3">
         <v>25.172949429999999</v>
       </c>
-      <c r="X465" s="3">
+      <c r="X465" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y465" s="3">
+      <c r="Y465" s="4">
         <v>23.7</v>
       </c>
-      <c r="Z465" s="3">
+      <c r="Z465" s="4">
         <v>18.3</v>
       </c>
       <c r="AC465" s="4">
@@ -33873,13 +33873,13 @@
       <c r="W466" s="3">
         <v>29.282736490000001</v>
       </c>
-      <c r="X466" s="3">
+      <c r="X466" s="4">
         <v>15.3</v>
       </c>
-      <c r="Y466" s="3">
+      <c r="Y466" s="4">
         <v>28.6</v>
       </c>
-      <c r="Z466" s="3">
+      <c r="Z466" s="4">
         <v>22</v>
       </c>
       <c r="AC466" s="4">
@@ -33962,13 +33962,13 @@
       <c r="W467" s="3">
         <v>32.018033709999997</v>
       </c>
-      <c r="X467" s="3">
+      <c r="X467" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="Y467" s="3">
+      <c r="Y467" s="4">
         <v>29.8</v>
       </c>
-      <c r="Z467" s="3">
+      <c r="Z467" s="4">
         <v>23.5</v>
       </c>
       <c r="AC467" s="4">
@@ -34051,13 +34051,13 @@
       <c r="W468" s="3">
         <v>29.40845376</v>
       </c>
-      <c r="X468" s="3">
+      <c r="X468" s="4">
         <v>17.5</v>
       </c>
-      <c r="Y468" s="3">
+      <c r="Y468" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z468" s="3">
+      <c r="Z468" s="4">
         <v>22.3</v>
       </c>
       <c r="AC468" s="4">
@@ -34140,13 +34140,13 @@
       <c r="W469" s="3">
         <v>28.391325250000001</v>
       </c>
-      <c r="X469" s="3">
+      <c r="X469" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y469" s="3">
+      <c r="Y469" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z469" s="3">
+      <c r="Z469" s="4">
         <v>22.6</v>
       </c>
       <c r="AC469" s="4">
@@ -34229,13 +34229,13 @@
       <c r="W470" s="3">
         <v>28.937193610000001</v>
       </c>
-      <c r="X470" s="3">
+      <c r="X470" s="4">
         <v>18</v>
       </c>
-      <c r="Y470" s="3">
+      <c r="Y470" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z470" s="3">
+      <c r="Z470" s="4">
         <v>22.4</v>
       </c>
       <c r="AC470" s="4">
@@ -34318,13 +34318,13 @@
       <c r="W471" s="3">
         <v>28.056044679999999</v>
       </c>
-      <c r="X471" s="3">
+      <c r="X471" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y471" s="3">
+      <c r="Y471" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z471" s="3">
+      <c r="Z471" s="4">
         <v>22.1</v>
       </c>
       <c r="AC471" s="4">
@@ -34407,13 +34407,13 @@
       <c r="W472" s="3">
         <v>28.033904750000001</v>
       </c>
-      <c r="X472" s="3">
+      <c r="X472" s="4">
         <v>15.5</v>
       </c>
-      <c r="Y472" s="3">
+      <c r="Y472" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z472" s="3">
+      <c r="Z472" s="4">
         <v>21</v>
       </c>
       <c r="AC472" s="4">
@@ -34496,13 +34496,13 @@
       <c r="W473" s="3">
         <v>26.908994660000001</v>
       </c>
-      <c r="X473" s="3">
+      <c r="X473" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y473" s="3">
+      <c r="Y473" s="4">
         <v>25.1</v>
       </c>
-      <c r="Z473" s="3">
+      <c r="Z473" s="4">
         <v>18.7</v>
       </c>
       <c r="AC473" s="4">
@@ -34585,13 +34585,13 @@
       <c r="W474" s="3">
         <v>25.05096391</v>
       </c>
-      <c r="X474" s="3">
+      <c r="X474" s="4">
         <v>13.7</v>
       </c>
-      <c r="Y474" s="3">
+      <c r="Y474" s="4">
         <v>24.1</v>
       </c>
-      <c r="Z474" s="3">
+      <c r="Z474" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="AC474" s="4">
@@ -34674,13 +34674,13 @@
       <c r="W475" s="3">
         <v>23.570127500000002</v>
       </c>
-      <c r="X475" s="3">
+      <c r="X475" s="4">
         <v>11.2</v>
       </c>
-      <c r="Y475" s="3">
+      <c r="Y475" s="4">
         <v>22.3</v>
       </c>
-      <c r="Z475" s="3">
+      <c r="Z475" s="4">
         <v>16.8</v>
       </c>
       <c r="AC475" s="4">
@@ -34763,13 +34763,13 @@
       <c r="W476" s="3">
         <v>24.504164469999999</v>
       </c>
-      <c r="X476" s="3">
+      <c r="X476" s="4">
         <v>11.5</v>
       </c>
-      <c r="Y476" s="3">
+      <c r="Y476" s="4">
         <v>22.8</v>
       </c>
-      <c r="Z476" s="3">
+      <c r="Z476" s="4">
         <v>17.2</v>
       </c>
       <c r="AC476" s="4">
@@ -34852,13 +34852,13 @@
       <c r="W477" s="3">
         <v>24.756290629999999</v>
       </c>
-      <c r="X477" s="3">
+      <c r="X477" s="4">
         <v>12.4</v>
       </c>
-      <c r="Y477" s="3">
+      <c r="Y477" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z477" s="3">
+      <c r="Z477" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="AC477" s="4">
@@ -34941,13 +34941,13 @@
       <c r="W478" s="3">
         <v>28.789436259999999</v>
       </c>
-      <c r="X478" s="3">
+      <c r="X478" s="4">
         <v>14.8</v>
       </c>
-      <c r="Y478" s="3">
+      <c r="Y478" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z478" s="3">
+      <c r="Z478" s="4">
         <v>21.1</v>
       </c>
       <c r="AC478" s="4">
@@ -35030,13 +35030,13 @@
       <c r="W479" s="3">
         <v>30.884930610000001</v>
       </c>
-      <c r="X479" s="3">
+      <c r="X479" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="Y479" s="3">
+      <c r="Y479" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z479" s="3">
+      <c r="Z479" s="4">
         <v>22.7</v>
       </c>
       <c r="AC479" s="4">
@@ -35119,13 +35119,13 @@
       <c r="W480" s="3">
         <v>29.266747110000001</v>
       </c>
-      <c r="X480" s="3">
+      <c r="X480" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y480" s="3">
+      <c r="Y480" s="4">
         <v>26.4</v>
       </c>
-      <c r="Z480" s="3">
+      <c r="Z480" s="4">
         <v>22.1</v>
       </c>
       <c r="AC480" s="4">
@@ -35208,13 +35208,13 @@
       <c r="W481" s="3">
         <v>28.004023929999999</v>
       </c>
-      <c r="X481" s="3">
+      <c r="X481" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y481" s="3">
+      <c r="Y481" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z481" s="3">
+      <c r="Z481" s="4">
         <v>22</v>
       </c>
       <c r="AC481" s="4">
@@ -35297,13 +35297,13 @@
       <c r="W482" s="3">
         <v>27.420711399999998</v>
       </c>
-      <c r="X482" s="3">
+      <c r="X482" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y482" s="3">
+      <c r="Y482" s="4">
         <v>26</v>
       </c>
-      <c r="Z482" s="3">
+      <c r="Z482" s="4">
         <v>22.4</v>
       </c>
       <c r="AC482" s="4">
@@ -35386,13 +35386,13 @@
       <c r="W483" s="3">
         <v>28.363763370000001</v>
       </c>
-      <c r="X483" s="3">
+      <c r="X483" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y483" s="3">
+      <c r="Y483" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z483" s="3">
+      <c r="Z483" s="4">
         <v>22.6</v>
       </c>
       <c r="AC483" s="4">
@@ -35475,13 +35475,13 @@
       <c r="W484" s="3">
         <v>27.740218949999999</v>
       </c>
-      <c r="X484" s="3">
+      <c r="X484" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y484" s="3">
+      <c r="Y484" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z484" s="3">
+      <c r="Z484" s="4">
         <v>22.7</v>
       </c>
       <c r="AC484" s="4">
@@ -35564,13 +35564,13 @@
       <c r="W485" s="3">
         <v>27.30802289</v>
       </c>
-      <c r="X485" s="3">
+      <c r="X485" s="4">
         <v>15.9</v>
       </c>
-      <c r="Y485" s="3">
+      <c r="Y485" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z485" s="3">
+      <c r="Z485" s="4">
         <v>20.9</v>
       </c>
       <c r="AC485" s="4">
@@ -35653,13 +35653,13 @@
       <c r="W486" s="3">
         <v>26.083760040000001</v>
       </c>
-      <c r="X486" s="3">
+      <c r="X486" s="4">
         <v>14.6</v>
       </c>
-      <c r="Y486" s="3">
+      <c r="Y486" s="4">
         <v>25</v>
       </c>
-      <c r="Z486" s="3">
+      <c r="Z486" s="4">
         <v>19.8</v>
       </c>
       <c r="AC486" s="4">
@@ -35742,13 +35742,13 @@
       <c r="W487" s="3">
         <v>23.376436160000001</v>
       </c>
-      <c r="X487" s="3">
+      <c r="X487" s="4">
         <v>11.2</v>
       </c>
-      <c r="Y487" s="3">
+      <c r="Y487" s="4">
         <v>22</v>
       </c>
-      <c r="Z487" s="3">
+      <c r="Z487" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="AC487" s="4">
@@ -35831,13 +35831,13 @@
       <c r="W488" s="3">
         <v>24.191928099999998</v>
       </c>
-      <c r="X488" s="3">
+      <c r="X488" s="4">
         <v>15</v>
       </c>
-      <c r="Y488" s="3">
+      <c r="Y488" s="4">
         <v>22.2</v>
       </c>
-      <c r="Z488" s="3">
+      <c r="Z488" s="4">
         <v>18.600000000000001</v>
       </c>
       <c r="AC488" s="4">
@@ -35920,13 +35920,13 @@
       <c r="W489" s="3">
         <v>26.329478609999999</v>
       </c>
-      <c r="X489" s="3">
+      <c r="X489" s="4">
         <v>13.9</v>
       </c>
-      <c r="Y489" s="3">
+      <c r="Y489" s="4">
         <v>25.1</v>
       </c>
-      <c r="Z489" s="3">
+      <c r="Z489" s="4">
         <v>19.5</v>
       </c>
       <c r="AC489" s="4">
@@ -36009,13 +36009,13 @@
       <c r="W490" s="3">
         <v>28.403218590000002</v>
       </c>
-      <c r="X490" s="3">
+      <c r="X490" s="4">
         <v>16.3</v>
       </c>
-      <c r="Y490" s="3">
+      <c r="Y490" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z490" s="3">
+      <c r="Z490" s="4">
         <v>21.5</v>
       </c>
       <c r="AC490" s="4">
@@ -36098,13 +36098,13 @@
       <c r="W491" s="3">
         <v>30.744657109999999</v>
       </c>
-      <c r="X491" s="3">
+      <c r="X491" s="4">
         <v>16</v>
       </c>
-      <c r="Y491" s="3">
+      <c r="Y491" s="4">
         <v>28</v>
       </c>
-      <c r="Z491" s="3">
+      <c r="Z491" s="4">
         <v>22</v>
       </c>
       <c r="AC491" s="4">
@@ -36187,13 +36187,13 @@
       <c r="W492" s="3">
         <v>30.084923209999999</v>
       </c>
-      <c r="X492" s="3">
+      <c r="X492" s="4">
         <v>19</v>
       </c>
-      <c r="Y492" s="3">
+      <c r="Y492" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z492" s="3">
+      <c r="Z492" s="4">
         <v>23.1</v>
       </c>
       <c r="AC492" s="4">
@@ -36276,13 +36276,13 @@
       <c r="W493" s="3">
         <v>28.697438810000001</v>
       </c>
-      <c r="X493" s="3">
+      <c r="X493" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y493" s="3">
+      <c r="Y493" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z493" s="3">
+      <c r="Z493" s="4">
         <v>21.8</v>
       </c>
       <c r="AC493" s="4">
@@ -36365,13 +36365,13 @@
       <c r="W494" s="3">
         <v>28.503804800000001</v>
       </c>
-      <c r="X494" s="3">
+      <c r="X494" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="Y494" s="3">
+      <c r="Y494" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z494" s="3">
+      <c r="Z494" s="4">
         <v>22.8</v>
       </c>
       <c r="AC494" s="4">
@@ -36454,13 +36454,13 @@
       <c r="W495" s="3">
         <v>30.044920619999999</v>
       </c>
-      <c r="X495" s="3">
+      <c r="X495" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y495" s="3">
+      <c r="Y495" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z495" s="3">
+      <c r="Z495" s="4">
         <v>23.2</v>
       </c>
       <c r="AC495" s="4">
@@ -36543,13 +36543,13 @@
       <c r="W496" s="3">
         <v>29.839393269999999</v>
       </c>
-      <c r="X496" s="3">
+      <c r="X496" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y496" s="3">
+      <c r="Y496" s="4">
         <v>28.1</v>
       </c>
-      <c r="Z496" s="3">
+      <c r="Z496" s="4">
         <v>23.3</v>
       </c>
       <c r="AC496" s="4">
@@ -36632,13 +36632,13 @@
       <c r="W497" s="3">
         <v>28.895275210000001</v>
       </c>
-      <c r="X497" s="3">
+      <c r="X497" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y497" s="3">
+      <c r="Y497" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z497" s="3">
+      <c r="Z497" s="4">
         <v>22.6</v>
       </c>
       <c r="AC497" s="4">
@@ -36721,13 +36721,13 @@
       <c r="W498" s="3">
         <v>27.35242388</v>
       </c>
-      <c r="X498" s="3">
+      <c r="X498" s="4">
         <v>14.3</v>
       </c>
-      <c r="Y498" s="3">
+      <c r="Y498" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z498" s="3">
+      <c r="Z498" s="4">
         <v>20.3</v>
       </c>
       <c r="AC498" s="4">
@@ -36810,13 +36810,13 @@
       <c r="W499" s="3">
         <v>24.07803852</v>
       </c>
-      <c r="X499" s="3">
+      <c r="X499" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y499" s="3">
+      <c r="Y499" s="4">
         <v>22.5</v>
       </c>
-      <c r="Z499" s="3">
+      <c r="Z499" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AC499" s="4">
@@ -36899,13 +36899,13 @@
       <c r="W500" s="3">
         <v>25.15547419</v>
       </c>
-      <c r="X500" s="3">
+      <c r="X500" s="4">
         <v>12</v>
       </c>
-      <c r="Y500" s="3">
+      <c r="Y500" s="4">
         <v>22.7</v>
       </c>
-      <c r="Z500" s="3">
+      <c r="Z500" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AC500" s="4">
@@ -36988,13 +36988,13 @@
       <c r="W501" s="3">
         <v>26.04747811</v>
       </c>
-      <c r="X501" s="3">
+      <c r="X501" s="4">
         <v>12.6</v>
       </c>
-      <c r="Y501" s="3">
+      <c r="Y501" s="4">
         <v>25.3</v>
       </c>
-      <c r="Z501" s="3">
+      <c r="Z501" s="4">
         <v>19</v>
       </c>
       <c r="AC501" s="4">
@@ -37077,13 +37077,13 @@
       <c r="W502" s="3">
         <v>29.608876309999999</v>
       </c>
-      <c r="X502" s="3">
+      <c r="X502" s="4">
         <v>14.5</v>
       </c>
-      <c r="Y502" s="3">
+      <c r="Y502" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z502" s="3">
+      <c r="Z502" s="4">
         <v>21.5</v>
       </c>
       <c r="AC502" s="4">
@@ -37166,13 +37166,13 @@
       <c r="W503" s="3">
         <v>30.694150879999999</v>
       </c>
-      <c r="X503" s="3">
+      <c r="X503" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y503" s="3">
+      <c r="Y503" s="4">
         <v>28.1</v>
       </c>
-      <c r="Z503" s="3">
+      <c r="Z503" s="4">
         <v>23</v>
       </c>
       <c r="AC503" s="4">
@@ -37255,13 +37255,13 @@
       <c r="W504" s="3">
         <v>32.197779070000003</v>
       </c>
-      <c r="X504" s="3">
+      <c r="X504" s="4">
         <v>16</v>
       </c>
-      <c r="Y504" s="3">
+      <c r="Y504" s="4">
         <v>30.4</v>
       </c>
-      <c r="Z504" s="3">
+      <c r="Z504" s="4">
         <v>23.2</v>
       </c>
       <c r="AC504" s="4">
@@ -37344,13 +37344,13 @@
       <c r="W505" s="3">
         <v>30.96508927</v>
       </c>
-      <c r="X505" s="3">
+      <c r="X505" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y505" s="3">
+      <c r="Y505" s="4">
         <v>29.3</v>
       </c>
-      <c r="Z505" s="3">
+      <c r="Z505" s="4">
         <v>23.5</v>
       </c>
       <c r="AC505" s="4">
@@ -37431,13 +37431,13 @@
       <c r="W506" s="3">
         <v>29.646415730000001</v>
       </c>
-      <c r="X506" s="3">
+      <c r="X506" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y506" s="3">
+      <c r="Y506" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z506" s="3">
+      <c r="Z506" s="4">
         <v>22.8</v>
       </c>
       <c r="AC506" s="4">
@@ -37518,13 +37518,13 @@
       <c r="W507" s="3">
         <v>27.95932522</v>
       </c>
-      <c r="X507" s="3">
+      <c r="X507" s="4">
         <v>18</v>
       </c>
-      <c r="Y507" s="3">
+      <c r="Y507" s="4">
         <v>26.4</v>
       </c>
-      <c r="Z507" s="3">
+      <c r="Z507" s="4">
         <v>22.2</v>
       </c>
       <c r="AC507" s="4">
@@ -37605,13 +37605,13 @@
       <c r="W508" s="3">
         <v>27.918034639999998</v>
       </c>
-      <c r="X508" s="3">
+      <c r="X508" s="4">
         <v>17.5</v>
       </c>
-      <c r="Y508" s="3">
+      <c r="Y508" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z508" s="3">
+      <c r="Z508" s="4">
         <v>22.4</v>
       </c>
       <c r="AC508" s="4">
@@ -37692,13 +37692,13 @@
       <c r="W509" s="3">
         <v>28.57263506</v>
       </c>
-      <c r="X509" s="3">
+      <c r="X509" s="4">
         <v>16.3</v>
       </c>
-      <c r="Y509" s="3">
+      <c r="Y509" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z509" s="3">
+      <c r="Z509" s="4">
         <v>21.6</v>
       </c>
       <c r="AC509" s="4">
@@ -37779,13 +37779,13 @@
       <c r="W510" s="3">
         <v>25.460680700000001</v>
       </c>
-      <c r="X510" s="3">
+      <c r="X510" s="4">
         <v>13.9</v>
       </c>
-      <c r="Y510" s="3">
+      <c r="Y510" s="4">
         <v>23.5</v>
       </c>
-      <c r="Z510" s="3">
+      <c r="Z510" s="4">
         <v>18.7</v>
       </c>
       <c r="AC510" s="4">
@@ -37866,13 +37866,13 @@
       <c r="W511" s="3">
         <v>24.95084001</v>
       </c>
-      <c r="X511" s="3">
+      <c r="X511" s="4">
         <v>12</v>
       </c>
-      <c r="Y511" s="3">
+      <c r="Y511" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z511" s="3">
+      <c r="Z511" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="AC511" s="4">
@@ -37953,13 +37953,13 @@
       <c r="W512" s="3">
         <v>24.715475300000001</v>
       </c>
-      <c r="X512" s="3">
+      <c r="X512" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y512" s="3">
+      <c r="Y512" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z512" s="3">
+      <c r="Z512" s="4">
         <v>17.5</v>
       </c>
       <c r="AC512" s="4">
@@ -38040,13 +38040,13 @@
       <c r="W513" s="3">
         <v>25.62728542</v>
       </c>
-      <c r="X513" s="3">
+      <c r="X513" s="4">
         <v>13.1</v>
       </c>
-      <c r="Y513" s="3">
+      <c r="Y513" s="4">
         <v>24.4</v>
       </c>
-      <c r="Z513" s="3">
+      <c r="Z513" s="4">
         <v>18.8</v>
       </c>
       <c r="AC513" s="4">
@@ -38127,13 +38127,13 @@
       <c r="W514" s="3">
         <v>29.070563920000001</v>
       </c>
-      <c r="X514" s="3">
+      <c r="X514" s="4">
         <v>14.4</v>
       </c>
-      <c r="Y514" s="3">
+      <c r="Y514" s="4">
         <v>27.7</v>
       </c>
-      <c r="Z514" s="3">
+      <c r="Z514" s="4">
         <v>21.1</v>
       </c>
       <c r="AC514" s="4">
@@ -38214,13 +38214,13 @@
       <c r="W515" s="3">
         <v>31.176898470000001</v>
       </c>
-      <c r="X515" s="3">
+      <c r="X515" s="4">
         <v>16.3</v>
       </c>
-      <c r="Y515" s="3">
+      <c r="Y515" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z515" s="3">
+      <c r="Z515" s="4">
         <v>22.4</v>
       </c>
       <c r="AC515" s="4">
@@ -38301,13 +38301,13 @@
       <c r="W516" s="3">
         <v>29.62122918</v>
       </c>
-      <c r="X516" s="3">
+      <c r="X516" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y516" s="3">
+      <c r="Y516" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z516" s="3">
+      <c r="Z516" s="4">
         <v>22.9</v>
       </c>
       <c r="AC516" s="4">
@@ -38388,13 +38388,13 @@
       <c r="W517" s="3">
         <v>28.70597764</v>
       </c>
-      <c r="X517" s="3">
+      <c r="X517" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y517" s="3">
+      <c r="Y517" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z517" s="3">
+      <c r="Z517" s="4">
         <v>22.7</v>
       </c>
       <c r="AC517" s="4">
@@ -38475,13 +38475,13 @@
       <c r="W518" s="3">
         <v>27.912311259999999</v>
       </c>
-      <c r="X518" s="3">
+      <c r="X518" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y518" s="3">
+      <c r="Y518" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z518" s="3">
+      <c r="Z518" s="4">
         <v>22.6</v>
       </c>
       <c r="AC518" s="4">
@@ -38562,13 +38562,13 @@
       <c r="W519" s="3">
         <v>26.99024253</v>
       </c>
-      <c r="X519" s="3">
+      <c r="X519" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="Y519" s="3">
+      <c r="Y519" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z519" s="3">
+      <c r="Z519" s="4">
         <v>21.3</v>
       </c>
       <c r="AC519" s="4">
@@ -38649,13 +38649,13 @@
       <c r="W520" s="3">
         <v>26.95385241</v>
       </c>
-      <c r="X520" s="3">
+      <c r="X520" s="4">
         <v>17</v>
       </c>
-      <c r="Y520" s="3">
+      <c r="Y520" s="4">
         <v>26.1</v>
       </c>
-      <c r="Z520" s="3">
+      <c r="Z520" s="4">
         <v>21.6</v>
       </c>
       <c r="AC520" s="4">
@@ -38736,13 +38736,13 @@
       <c r="W521" s="3">
         <v>26.820316590000001</v>
       </c>
-      <c r="X521" s="3">
+      <c r="X521" s="4">
         <v>16.8</v>
       </c>
-      <c r="Y521" s="3">
+      <c r="Y521" s="4">
         <v>24.9</v>
       </c>
-      <c r="Z521" s="3">
+      <c r="Z521" s="4">
         <v>20.9</v>
       </c>
       <c r="AC521" s="4">
@@ -38823,13 +38823,13 @@
       <c r="W522" s="3">
         <v>25.65019556</v>
       </c>
-      <c r="X522" s="3">
+      <c r="X522" s="4">
         <v>15.2</v>
       </c>
-      <c r="Y522" s="3">
+      <c r="Y522" s="4">
         <v>24.4</v>
       </c>
-      <c r="Z522" s="3">
+      <c r="Z522" s="4">
         <v>19.8</v>
       </c>
       <c r="AC522" s="4">
@@ -38910,13 +38910,13 @@
       <c r="W523" s="3">
         <v>24.184374909999999</v>
       </c>
-      <c r="X523" s="3">
+      <c r="X523" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y523" s="3">
+      <c r="Y523" s="4">
         <v>22.9</v>
       </c>
-      <c r="Z523" s="3">
+      <c r="Z523" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="AC523" s="4">
@@ -38997,13 +38997,13 @@
       <c r="W524" s="3">
         <v>24.806263349999998</v>
       </c>
-      <c r="X524" s="3">
+      <c r="X524" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y524" s="3">
+      <c r="Y524" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z524" s="3">
+      <c r="Z524" s="4">
         <v>17.8</v>
       </c>
       <c r="AC524" s="4">
@@ -39084,13 +39084,13 @@
       <c r="W525" s="3">
         <v>25.909196229999999</v>
       </c>
-      <c r="X525" s="3">
+      <c r="X525" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y525" s="3">
+      <c r="Y525" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z525" s="3">
+      <c r="Z525" s="4">
         <v>18.600000000000001</v>
       </c>
       <c r="AC525" s="4">
@@ -39171,13 +39171,13 @@
       <c r="W526" s="3">
         <v>28.509434779999999</v>
       </c>
-      <c r="X526" s="3">
+      <c r="X526" s="4">
         <v>12.9</v>
       </c>
-      <c r="Y526" s="3">
+      <c r="Y526" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z526" s="3">
+      <c r="Z526" s="4">
         <v>19.8</v>
       </c>
       <c r="AC526" s="4">
@@ -39258,13 +39258,13 @@
       <c r="W527" s="3">
         <v>31.026658529999999</v>
       </c>
-      <c r="X527" s="3">
+      <c r="X527" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="Y527" s="3">
+      <c r="Y527" s="4">
         <v>28.8</v>
       </c>
-      <c r="Z527" s="3">
+      <c r="Z527" s="4">
         <v>23</v>
       </c>
       <c r="AC527" s="4">
@@ -39345,13 +39345,13 @@
       <c r="W528" s="3">
         <v>30.729464740000001</v>
       </c>
-      <c r="X528" s="3">
+      <c r="X528" s="4">
         <v>17.3</v>
       </c>
-      <c r="Y528" s="3">
+      <c r="Y528" s="4">
         <v>29.4</v>
       </c>
-      <c r="Z528" s="3">
+      <c r="Z528" s="4">
         <v>23.4</v>
       </c>
       <c r="AC528" s="4">
@@ -39432,13 +39432,13 @@
       <c r="W529" s="3">
         <v>29.008384419999999</v>
       </c>
-      <c r="X529" s="3">
+      <c r="X529" s="4">
         <v>19</v>
       </c>
-      <c r="Y529" s="3">
+      <c r="Y529" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z529" s="3">
+      <c r="Z529" s="4">
         <v>23.1</v>
       </c>
       <c r="AC529" s="4">
@@ -39519,13 +39519,13 @@
       <c r="W530" s="3">
         <v>28.086910209999999</v>
       </c>
-      <c r="X530" s="3">
+      <c r="X530" s="4">
         <v>19</v>
       </c>
-      <c r="Y530" s="3">
+      <c r="Y530" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z530" s="3">
+      <c r="Z530" s="4">
         <v>22.8</v>
       </c>
       <c r="AC530" s="4">
@@ -39615,13 +39615,13 @@
       <c r="W531" s="3">
         <v>28.56522704</v>
       </c>
-      <c r="X531" s="3">
+      <c r="X531" s="4">
         <v>19.2</v>
       </c>
-      <c r="Y531" s="3">
+      <c r="Y531" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z531" s="3">
+      <c r="Z531" s="4">
         <v>23.3</v>
       </c>
       <c r="AC531" s="4">
@@ -39711,13 +39711,13 @@
       <c r="W532" s="3">
         <v>29.116399909999998</v>
       </c>
-      <c r="X532" s="3">
+      <c r="X532" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y532" s="3">
+      <c r="Y532" s="4">
         <v>28.3</v>
       </c>
-      <c r="Z532" s="3">
+      <c r="Z532" s="4">
         <v>23.4</v>
       </c>
       <c r="AC532" s="4">
@@ -39807,13 +39807,13 @@
       <c r="W533" s="3">
         <v>28.28615203</v>
       </c>
-      <c r="X533" s="3">
+      <c r="X533" s="4">
         <v>15.4</v>
       </c>
-      <c r="Y533" s="3">
+      <c r="Y533" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z533" s="3">
+      <c r="Z533" s="4">
         <v>21.1</v>
       </c>
       <c r="AC533" s="4">
@@ -39903,13 +39903,13 @@
       <c r="W534" s="3">
         <v>25.947216439999998</v>
       </c>
-      <c r="X534" s="3">
+      <c r="X534" s="4">
         <v>14.2</v>
       </c>
-      <c r="Y534" s="3">
+      <c r="Y534" s="4">
         <v>24.1</v>
       </c>
-      <c r="Z534" s="3">
+      <c r="Z534" s="4">
         <v>19.2</v>
       </c>
       <c r="AC534" s="4">
@@ -39999,13 +39999,13 @@
       <c r="W535" s="3">
         <v>25.197807739999998</v>
       </c>
-      <c r="X535" s="3">
+      <c r="X535" s="4">
         <v>11.9</v>
       </c>
-      <c r="Y535" s="3">
+      <c r="Y535" s="4">
         <v>24.4</v>
       </c>
-      <c r="Z535" s="3">
+      <c r="Z535" s="4">
         <v>18.2</v>
       </c>
       <c r="AC535" s="4">
@@ -40095,13 +40095,13 @@
       <c r="W536" s="3">
         <v>25.14578144</v>
       </c>
-      <c r="X536" s="3">
+      <c r="X536" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y536" s="3">
+      <c r="Y536" s="4">
         <v>22.9</v>
       </c>
-      <c r="Z536" s="3">
+      <c r="Z536" s="4">
         <v>17.3</v>
       </c>
       <c r="AC536" s="4">
@@ -40191,13 +40191,13 @@
       <c r="W537" s="3">
         <v>25.108184699999999</v>
       </c>
-      <c r="X537" s="3">
+      <c r="X537" s="4">
         <v>12.1</v>
       </c>
-      <c r="Y537" s="3">
+      <c r="Y537" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z537" s="3">
+      <c r="Z537" s="4">
         <v>18</v>
       </c>
       <c r="AC537" s="4">
@@ -40287,13 +40287,13 @@
       <c r="W538" s="3">
         <v>27.850642149999999</v>
       </c>
-      <c r="X538" s="3">
+      <c r="X538" s="4">
         <v>15.8</v>
       </c>
-      <c r="Y538" s="3">
+      <c r="Y538" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z538" s="3">
+      <c r="Z538" s="4">
         <v>19.8</v>
       </c>
       <c r="AC538" s="4">
@@ -40383,13 +40383,13 @@
       <c r="W539" s="3">
         <v>32.343767630000002</v>
       </c>
-      <c r="X539" s="3">
+      <c r="X539" s="4">
         <v>17.5</v>
       </c>
-      <c r="Y539" s="3">
+      <c r="Y539" s="4">
         <v>29.5</v>
       </c>
-      <c r="Z539" s="3">
+      <c r="Z539" s="4">
         <v>23.5</v>
       </c>
       <c r="AC539" s="4">
@@ -40479,13 +40479,13 @@
       <c r="W540" s="3">
         <v>31.478395419999998</v>
       </c>
-      <c r="X540" s="3">
+      <c r="X540" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y540" s="3">
+      <c r="Y540" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z540" s="3">
+      <c r="Z540" s="4">
         <v>23.2</v>
       </c>
       <c r="AC540" s="4">
@@ -40575,13 +40575,13 @@
       <c r="W541" s="3">
         <v>30.57764186</v>
       </c>
-      <c r="X541" s="3">
+      <c r="X541" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y541" s="3">
+      <c r="Y541" s="4">
         <v>28.9</v>
       </c>
-      <c r="Z541" s="3">
+      <c r="Z541" s="4">
         <v>23.4</v>
       </c>
       <c r="AC541" s="4">
@@ -40671,13 +40671,13 @@
       <c r="W542" s="3">
         <v>29.00959567</v>
       </c>
-      <c r="X542" s="3">
+      <c r="X542" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y542" s="3">
+      <c r="Y542" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z542" s="3">
+      <c r="Z542" s="4">
         <v>22.6</v>
       </c>
       <c r="AC542" s="4">
@@ -40767,13 +40767,13 @@
       <c r="W543" s="3">
         <v>28.992657619999999</v>
       </c>
-      <c r="X543" s="3">
+      <c r="X543" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y543" s="3">
+      <c r="Y543" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z543" s="3">
+      <c r="Z543" s="4">
         <v>22.6</v>
       </c>
       <c r="AC543" s="4">
@@ -40863,13 +40863,13 @@
       <c r="W544" s="3">
         <v>28.04676246</v>
       </c>
-      <c r="X544" s="3">
+      <c r="X544" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y544" s="3">
+      <c r="Y544" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z544" s="3">
+      <c r="Z544" s="4">
         <v>22.4</v>
       </c>
       <c r="AC544" s="4">
@@ -40959,13 +40959,13 @@
       <c r="W545" s="3">
         <v>26.640966039999999</v>
       </c>
-      <c r="X545" s="3">
+      <c r="X545" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="Y545" s="3">
+      <c r="Y545" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z545" s="3">
+      <c r="Z545" s="4">
         <v>20.6</v>
       </c>
       <c r="AC545" s="4">
@@ -41055,13 +41055,13 @@
       <c r="W546" s="3">
         <v>26.019281939999999</v>
       </c>
-      <c r="X546" s="3">
+      <c r="X546" s="4">
         <v>15.1</v>
       </c>
-      <c r="Y546" s="3">
+      <c r="Y546" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z546" s="3">
+      <c r="Z546" s="4">
         <v>20</v>
       </c>
       <c r="AC546" s="4">
@@ -41151,13 +41151,13 @@
       <c r="W547" s="3">
         <v>24.416537680000001</v>
       </c>
-      <c r="X547" s="3">
+      <c r="X547" s="4">
         <v>13</v>
       </c>
-      <c r="Y547" s="3">
+      <c r="Y547" s="4">
         <v>22.7</v>
       </c>
-      <c r="Z547" s="3">
+      <c r="Z547" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="AC547" s="4">
@@ -41247,13 +41247,13 @@
       <c r="W548" s="3">
         <v>24.541649329999998</v>
       </c>
-      <c r="X548" s="3">
+      <c r="X548" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y548" s="3">
+      <c r="Y548" s="4">
         <v>22.3</v>
       </c>
-      <c r="Z548" s="3">
+      <c r="Z548" s="4">
         <v>17</v>
       </c>
       <c r="AC548" s="4">
@@ -41343,13 +41343,13 @@
       <c r="W549" s="3">
         <v>25.802938430000001</v>
       </c>
-      <c r="X549" s="3">
+      <c r="X549" s="4">
         <v>12.6</v>
       </c>
-      <c r="Y549" s="3">
+      <c r="Y549" s="4">
         <v>24.7</v>
       </c>
-      <c r="Z549" s="3">
+      <c r="Z549" s="4">
         <v>18.7</v>
       </c>
       <c r="AC549" s="4">
@@ -41439,13 +41439,13 @@
       <c r="W550" s="3">
         <v>29.70221076</v>
       </c>
-      <c r="X550" s="3">
+      <c r="X550" s="4">
         <v>15.2</v>
       </c>
-      <c r="Y550" s="3">
+      <c r="Y550" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z550" s="3">
+      <c r="Z550" s="4">
         <v>21.5</v>
       </c>
       <c r="AC550" s="4">
@@ -41535,13 +41535,13 @@
       <c r="W551" s="3">
         <v>31.576895690000001</v>
       </c>
-      <c r="X551" s="3">
+      <c r="X551" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="Y551" s="3">
+      <c r="Y551" s="4">
         <v>29.2</v>
       </c>
-      <c r="Z551" s="3">
+      <c r="Z551" s="4">
         <v>23.4</v>
       </c>
       <c r="AC551" s="4">
@@ -41631,13 +41631,13 @@
       <c r="W552" s="3">
         <v>30.190751989999999</v>
       </c>
-      <c r="X552" s="3">
+      <c r="X552" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y552" s="3">
+      <c r="Y552" s="4">
         <v>28.2</v>
       </c>
-      <c r="Z552" s="3">
+      <c r="Z552" s="4">
         <v>23.5</v>
       </c>
       <c r="AC552" s="4">
@@ -41727,13 +41727,13 @@
       <c r="W553" s="3">
         <v>28.71520808</v>
       </c>
-      <c r="X553" s="3">
+      <c r="X553" s="4">
         <v>19.5</v>
       </c>
-      <c r="Y553" s="3">
+      <c r="Y553" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z553" s="3">
+      <c r="Z553" s="4">
         <v>22.9</v>
       </c>
       <c r="AC553" s="4">
@@ -41823,13 +41823,13 @@
       <c r="W554" s="3">
         <v>29.899952840000001</v>
       </c>
-      <c r="X554" s="3">
+      <c r="X554" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y554" s="3">
+      <c r="Y554" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z554" s="3">
+      <c r="Z554" s="4">
         <v>23.3</v>
       </c>
       <c r="AC554" s="4">
@@ -41919,13 +41919,13 @@
       <c r="W555" s="3">
         <v>29.728787919999998</v>
       </c>
-      <c r="X555" s="3">
+      <c r="X555" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y555" s="3">
+      <c r="Y555" s="4">
         <v>29.2</v>
       </c>
-      <c r="Z555" s="3">
+      <c r="Z555" s="4">
         <v>23.9</v>
       </c>
       <c r="AC555" s="4">
@@ -42015,13 +42015,13 @@
       <c r="W556" s="3">
         <v>29.317258880000001</v>
       </c>
-      <c r="X556" s="3">
+      <c r="X556" s="4">
         <v>17.5</v>
       </c>
-      <c r="Y556" s="3">
+      <c r="Y556" s="4">
         <v>28.3</v>
       </c>
-      <c r="Z556" s="3">
+      <c r="Z556" s="4">
         <v>22.9</v>
       </c>
       <c r="AC556" s="4">
@@ -42111,13 +42111,13 @@
       <c r="W557" s="3">
         <v>28.77143491</v>
       </c>
-      <c r="X557" s="3">
+      <c r="X557" s="4">
         <v>17.3</v>
       </c>
-      <c r="Y557" s="3">
+      <c r="Y557" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z557" s="3">
+      <c r="Z557" s="4">
         <v>22.6</v>
       </c>
       <c r="AC557" s="4">
@@ -42207,13 +42207,13 @@
       <c r="W558" s="3">
         <v>27.481782290000002</v>
       </c>
-      <c r="X558" s="3">
+      <c r="X558" s="4">
         <v>14.1</v>
       </c>
-      <c r="Y558" s="3">
+      <c r="Y558" s="4">
         <v>25.6</v>
       </c>
-      <c r="Z558" s="3">
+      <c r="Z558" s="4">
         <v>19.899999999999999</v>
       </c>
       <c r="AC558" s="4">
@@ -42303,13 +42303,13 @@
       <c r="W559" s="3">
         <v>24.946992689999998</v>
       </c>
-      <c r="X559" s="3">
+      <c r="X559" s="4">
         <v>12.1</v>
       </c>
-      <c r="Y559" s="3">
+      <c r="Y559" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z559" s="3">
+      <c r="Z559" s="4">
         <v>17.8</v>
       </c>
       <c r="AC559" s="4">
@@ -42399,13 +42399,13 @@
       <c r="W560" s="3">
         <v>24.54873929</v>
       </c>
-      <c r="X560" s="3">
+      <c r="X560" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y560" s="3">
+      <c r="Y560" s="4">
         <v>22.6</v>
       </c>
-      <c r="Z560" s="3">
+      <c r="Z560" s="4">
         <v>17.5</v>
       </c>
       <c r="AC560" s="4">
@@ -42495,13 +42495,13 @@
       <c r="W561" s="3">
         <v>25.212185510000001</v>
       </c>
-      <c r="X561" s="3">
+      <c r="X561" s="4">
         <v>12.5</v>
       </c>
-      <c r="Y561" s="3">
+      <c r="Y561" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z561" s="3">
+      <c r="Z561" s="4">
         <v>18</v>
       </c>
       <c r="AC561" s="4">
@@ -42591,13 +42591,13 @@
       <c r="W562" s="3">
         <v>29.4925365</v>
       </c>
-      <c r="X562" s="3">
+      <c r="X562" s="4">
         <v>14.7</v>
       </c>
-      <c r="Y562" s="3">
+      <c r="Y562" s="4">
         <v>28.1</v>
       </c>
-      <c r="Z562" s="3">
+      <c r="Z562" s="4">
         <v>21.4</v>
       </c>
       <c r="AC562" s="4">
@@ -42687,13 +42687,13 @@
       <c r="W563" s="3">
         <v>32.517114640000003</v>
       </c>
-      <c r="X563" s="3">
+      <c r="X563" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y563" s="3">
+      <c r="Y563" s="4">
         <v>30</v>
       </c>
-      <c r="Z563" s="3">
+      <c r="Z563" s="4">
         <v>23.9</v>
       </c>
       <c r="AC563" s="4">
@@ -42783,13 +42783,13 @@
       <c r="W564" s="3">
         <v>31.52493874</v>
       </c>
-      <c r="X564" s="3">
+      <c r="X564" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y564" s="3">
+      <c r="Y564" s="4">
         <v>29.8</v>
       </c>
-      <c r="Z564" s="3">
+      <c r="Z564" s="4">
         <v>24</v>
       </c>
       <c r="AC564" s="4">
@@ -42879,13 +42879,13 @@
       <c r="W565" s="3">
         <v>30.159623870000001</v>
       </c>
-      <c r="X565" s="3">
+      <c r="X565" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y565" s="3">
+      <c r="Y565" s="4">
         <v>28</v>
       </c>
-      <c r="Z565" s="3">
+      <c r="Z565" s="4">
         <v>23.5</v>
       </c>
       <c r="AC565" s="4">
@@ -42975,13 +42975,13 @@
       <c r="W566" s="3">
         <v>28.230071290000001</v>
       </c>
-      <c r="X566" s="3">
+      <c r="X566" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y566" s="3">
+      <c r="Y566" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z566" s="3">
+      <c r="Z566" s="4">
         <v>22.5</v>
       </c>
       <c r="AC566" s="4">
@@ -43071,13 +43071,13 @@
       <c r="W567" s="3">
         <v>28.493919720000001</v>
       </c>
-      <c r="X567" s="3">
+      <c r="X567" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y567" s="3">
+      <c r="Y567" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z567" s="3">
+      <c r="Z567" s="4">
         <v>22.2</v>
       </c>
       <c r="AC567" s="4">
@@ -43167,13 +43167,13 @@
       <c r="W568" s="3">
         <v>27.585090569999998</v>
       </c>
-      <c r="X568" s="3">
+      <c r="X568" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="Y568" s="3">
+      <c r="Y568" s="4">
         <v>26.1</v>
       </c>
-      <c r="Z568" s="3">
+      <c r="Z568" s="4">
         <v>21.1</v>
       </c>
       <c r="AC568" s="4">
@@ -43263,13 +43263,13 @@
       <c r="W569" s="3">
         <v>28.670493650000001</v>
       </c>
-      <c r="X569" s="3">
+      <c r="X569" s="4">
         <v>15.7</v>
       </c>
-      <c r="Y569" s="3">
+      <c r="Y569" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z569" s="3">
+      <c r="Z569" s="4">
         <v>21.3</v>
       </c>
       <c r="AC569" s="4">
@@ -43359,13 +43359,13 @@
       <c r="W570" s="3">
         <v>27.31034738</v>
       </c>
-      <c r="X570" s="3">
+      <c r="X570" s="4">
         <v>13.3</v>
       </c>
-      <c r="Y570" s="3">
+      <c r="Y570" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z570" s="3">
+      <c r="Z570" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="AC570" s="4">
@@ -43455,13 +43455,13 @@
       <c r="W571" s="3">
         <v>24.24850258</v>
       </c>
-      <c r="X571" s="3">
+      <c r="X571" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y571" s="3">
+      <c r="Y571" s="4">
         <v>22.6</v>
       </c>
-      <c r="Z571" s="3">
+      <c r="Z571" s="4">
         <v>17.5</v>
       </c>
       <c r="AC571" s="4">
@@ -43551,13 +43551,13 @@
       <c r="W572" s="3">
         <v>24.152608799999999</v>
       </c>
-      <c r="X572" s="3">
+      <c r="X572" s="4">
         <v>11.9</v>
       </c>
-      <c r="Y572" s="3">
+      <c r="Y572" s="4">
         <v>22.1</v>
       </c>
-      <c r="Z572" s="3">
+      <c r="Z572" s="4">
         <v>17</v>
       </c>
       <c r="AC572" s="4">
@@ -43647,13 +43647,13 @@
       <c r="W573" s="3">
         <v>25.002027680000001</v>
       </c>
-      <c r="X573" s="3">
+      <c r="X573" s="4">
         <v>12.6</v>
       </c>
-      <c r="Y573" s="3">
+      <c r="Y573" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z573" s="3">
+      <c r="Z573" s="4">
         <v>18</v>
       </c>
       <c r="AC573" s="4">
@@ -43743,13 +43743,13 @@
       <c r="W574" s="3">
         <v>28.733344429999999</v>
       </c>
-      <c r="X574" s="3">
+      <c r="X574" s="4">
         <v>14.9</v>
       </c>
-      <c r="Y574" s="3">
+      <c r="Y574" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z574" s="3">
+      <c r="Z574" s="4">
         <v>21.1</v>
       </c>
       <c r="AC574" s="4">
@@ -43839,13 +43839,13 @@
       <c r="W575" s="3">
         <v>31.54351243</v>
       </c>
-      <c r="X575" s="3">
+      <c r="X575" s="4">
         <v>15.8</v>
       </c>
-      <c r="Y575" s="3">
+      <c r="Y575" s="4">
         <v>29.4</v>
       </c>
-      <c r="Z575" s="3">
+      <c r="Z575" s="4">
         <v>22.6</v>
       </c>
       <c r="AC575" s="4">
@@ -43935,13 +43935,13 @@
       <c r="W576" s="3">
         <v>30.023122799999999</v>
       </c>
-      <c r="X576" s="3">
+      <c r="X576" s="4">
         <v>19.2</v>
       </c>
-      <c r="Y576" s="3">
+      <c r="Y576" s="4">
         <v>28.8</v>
       </c>
-      <c r="Z576" s="3">
+      <c r="Z576" s="4">
         <v>24</v>
       </c>
       <c r="AC576" s="4">
@@ -44031,13 +44031,13 @@
       <c r="W577" s="3">
         <v>30.539749239999999</v>
       </c>
-      <c r="X577" s="3">
+      <c r="X577" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y577" s="3">
+      <c r="Y577" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z577" s="3">
+      <c r="Z577" s="4">
         <v>23.4</v>
       </c>
       <c r="AC577" s="4">
@@ -44127,13 +44127,13 @@
       <c r="W578" s="3">
         <v>29.264957979999998</v>
       </c>
-      <c r="X578" s="3">
+      <c r="X578" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y578" s="3">
+      <c r="Y578" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z578" s="3">
+      <c r="Z578" s="4">
         <v>22.8</v>
       </c>
       <c r="AC578" s="4">
@@ -44223,13 +44223,13 @@
       <c r="W579" s="3">
         <v>28.42165636</v>
       </c>
-      <c r="X579" s="3">
+      <c r="X579" s="4">
         <v>17.7</v>
       </c>
-      <c r="Y579" s="3">
+      <c r="Y579" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z579" s="3">
+      <c r="Z579" s="4">
         <v>22.2</v>
       </c>
       <c r="AC579" s="4">
@@ -44319,13 +44319,13 @@
       <c r="W580" s="3">
         <v>28.620469150000002</v>
       </c>
-      <c r="X580" s="3">
+      <c r="X580" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y580" s="3">
+      <c r="Y580" s="4">
         <v>22</v>
       </c>
-      <c r="Z580" s="3">
+      <c r="Z580" s="4">
         <v>19.7</v>
       </c>
       <c r="AC580" s="4">
@@ -44415,13 +44415,13 @@
       <c r="W581" s="3">
         <v>27.61334961</v>
       </c>
-      <c r="X581" s="3">
+      <c r="X581" s="4">
         <v>15.5</v>
       </c>
-      <c r="Y581" s="3">
+      <c r="Y581" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z581" s="3">
+      <c r="Z581" s="4">
         <v>21.2</v>
       </c>
       <c r="AC581" s="4">
@@ -44511,13 +44511,13 @@
       <c r="W582" s="3">
         <v>26.452487680000001</v>
       </c>
-      <c r="X582" s="3">
+      <c r="X582" s="4">
         <v>13.9</v>
       </c>
-      <c r="Y582" s="3">
+      <c r="Y582" s="4">
         <v>25.4</v>
       </c>
-      <c r="Z582" s="3">
+      <c r="Z582" s="4">
         <v>19.7</v>
       </c>
       <c r="AC582" s="4">
@@ -44607,13 +44607,13 @@
       <c r="W583" s="3">
         <v>24.186569949999999</v>
       </c>
-      <c r="X583" s="3">
+      <c r="X583" s="4">
         <v>11.3</v>
       </c>
-      <c r="Y583" s="3">
+      <c r="Y583" s="4">
         <v>22.6</v>
       </c>
-      <c r="Z583" s="3">
+      <c r="Z583" s="4">
         <v>17</v>
       </c>
       <c r="AC583" s="4">
@@ -44703,13 +44703,13 @@
       <c r="W584" s="3">
         <v>23.404518599999999</v>
       </c>
-      <c r="X584" s="3">
+      <c r="X584" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y584" s="3">
+      <c r="Y584" s="4">
         <v>22</v>
       </c>
-      <c r="Z584" s="3">
+      <c r="Z584" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC584" s="4">
@@ -44799,13 +44799,13 @@
       <c r="W585" s="3">
         <v>24.940515749999999</v>
       </c>
-      <c r="X585" s="3">
+      <c r="X585" s="4">
         <v>13.6</v>
       </c>
-      <c r="Y585" s="3">
+      <c r="Y585" s="4">
         <v>23.9</v>
       </c>
-      <c r="Z585" s="3">
+      <c r="Z585" s="4">
         <v>18.8</v>
       </c>
       <c r="AC585" s="4">
@@ -44895,13 +44895,13 @@
       <c r="W586" s="3">
         <v>28.64168724</v>
       </c>
-      <c r="X586" s="3">
+      <c r="X586" s="4">
         <v>15.1</v>
       </c>
-      <c r="Y586" s="3">
+      <c r="Y586" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z586" s="3">
+      <c r="Z586" s="4">
         <v>21.5</v>
       </c>
       <c r="AC586" s="4">
@@ -44991,13 +44991,13 @@
       <c r="W587" s="3">
         <v>29.77496232</v>
       </c>
-      <c r="X587" s="3">
+      <c r="X587" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y587" s="3">
+      <c r="Y587" s="4">
         <v>28.3</v>
       </c>
-      <c r="Z587" s="3">
+      <c r="Z587" s="4">
         <v>23.5</v>
       </c>
       <c r="AC587" s="4">
@@ -45087,13 +45087,13 @@
       <c r="W588" s="3">
         <v>32.240684960000003</v>
       </c>
-      <c r="X588" s="3">
+      <c r="X588" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y588" s="3">
+      <c r="Y588" s="4">
         <v>30.6</v>
       </c>
-      <c r="Z588" s="3">
+      <c r="Z588" s="4">
         <v>24.6</v>
       </c>
       <c r="AC588" s="4">
@@ -45183,13 +45183,13 @@
       <c r="W589" s="3">
         <v>30.51045556</v>
       </c>
-      <c r="X589" s="3">
+      <c r="X589" s="4">
         <v>18</v>
       </c>
-      <c r="Y589" s="3">
+      <c r="Y589" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z589" s="3">
+      <c r="Z589" s="4">
         <v>23.4</v>
       </c>
       <c r="AC589" s="4">
@@ -45279,13 +45279,13 @@
       <c r="W590" s="3">
         <v>28.230773070000001</v>
       </c>
-      <c r="X590" s="3">
+      <c r="X590" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y590" s="3">
+      <c r="Y590" s="4">
         <v>26.1</v>
       </c>
-      <c r="Z590" s="3">
+      <c r="Z590" s="4">
         <v>22.2</v>
       </c>
       <c r="AC590" s="4">
@@ -45375,13 +45375,13 @@
       <c r="W591" s="3">
         <v>29.00143593</v>
       </c>
-      <c r="X591" s="3">
+      <c r="X591" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="Y591" s="3">
+      <c r="Y591" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z591" s="3">
+      <c r="Z591" s="4">
         <v>22.7</v>
       </c>
       <c r="AC591" s="4">
@@ -45471,13 +45471,13 @@
       <c r="W592" s="3">
         <v>29.387260640000001</v>
       </c>
-      <c r="X592" s="3">
+      <c r="X592" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y592" s="3">
+      <c r="Y592" s="4">
         <v>28</v>
       </c>
-      <c r="Z592" s="3">
+      <c r="Z592" s="4">
         <v>22.6</v>
       </c>
       <c r="AC592" s="4">
@@ -45567,13 +45567,13 @@
       <c r="W593" s="3">
         <v>27.926177729999999</v>
       </c>
-      <c r="X593" s="3">
+      <c r="X593" s="4">
         <v>15.4</v>
       </c>
-      <c r="Y593" s="3">
+      <c r="Y593" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z593" s="3">
+      <c r="Z593" s="4">
         <v>21.1</v>
       </c>
       <c r="AC593" s="4">
@@ -45663,13 +45663,13 @@
       <c r="W594" s="3">
         <v>26.272050709999998</v>
       </c>
-      <c r="X594" s="3">
+      <c r="X594" s="4">
         <v>14.9</v>
       </c>
-      <c r="Y594" s="3">
+      <c r="Y594" s="4">
         <v>24.1</v>
       </c>
-      <c r="Z594" s="3">
+      <c r="Z594" s="4">
         <v>19.5</v>
       </c>
       <c r="AC594" s="4">
@@ -45759,13 +45759,13 @@
       <c r="W595" s="3">
         <v>24.43650014</v>
       </c>
-      <c r="X595" s="3">
+      <c r="X595" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y595" s="3">
+      <c r="Y595" s="4">
         <v>23</v>
       </c>
-      <c r="Z595" s="3">
+      <c r="Z595" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="AC595" s="4">
@@ -45855,13 +45855,13 @@
       <c r="W596" s="3">
         <v>24.90322136</v>
       </c>
-      <c r="X596" s="3">
+      <c r="X596" s="4">
         <v>10.5</v>
       </c>
-      <c r="Y596" s="3">
+      <c r="Y596" s="4">
         <v>23.3</v>
       </c>
-      <c r="Z596" s="3">
+      <c r="Z596" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC596" s="4">
@@ -45951,13 +45951,13 @@
       <c r="W597" s="3">
         <v>26.102926409999998</v>
       </c>
-      <c r="X597" s="3">
+      <c r="X597" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y597" s="3">
+      <c r="Y597" s="4">
         <v>25.9</v>
       </c>
-      <c r="Z597" s="3">
+      <c r="Z597" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="AC597" s="4">
@@ -46047,13 +46047,13 @@
       <c r="W598" s="3">
         <v>29.184355499999999</v>
       </c>
-      <c r="X598" s="3">
+      <c r="X598" s="4">
         <v>14.8</v>
       </c>
-      <c r="Y598" s="3">
+      <c r="Y598" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z598" s="3">
+      <c r="Z598" s="4">
         <v>21.6</v>
       </c>
       <c r="AC598" s="4">
@@ -46143,13 +46143,13 @@
       <c r="W599" s="3">
         <v>33.58850425</v>
       </c>
-      <c r="X599" s="3">
+      <c r="X599" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y599" s="3">
+      <c r="Y599" s="4">
         <v>31.5</v>
       </c>
-      <c r="Z599" s="3">
+      <c r="Z599" s="4">
         <v>24.4</v>
       </c>
       <c r="AC599" s="4">
@@ -46239,13 +46239,13 @@
       <c r="W600" s="3">
         <v>32.107567979999999</v>
       </c>
-      <c r="X600" s="3">
+      <c r="X600" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="Y600" s="3">
+      <c r="Y600" s="4">
         <v>30.8</v>
       </c>
-      <c r="Z600" s="3">
+      <c r="Z600" s="4">
         <v>25.5</v>
       </c>
       <c r="AC600" s="4">
@@ -46335,13 +46335,13 @@
       <c r="W601" s="3">
         <v>28.44261925</v>
       </c>
-      <c r="X601" s="3">
+      <c r="X601" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y601" s="3">
+      <c r="Y601" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z601" s="3">
+      <c r="Z601" s="4">
         <v>22.6</v>
       </c>
       <c r="AC601" s="4">
@@ -46431,13 +46431,13 @@
       <c r="W602" s="3">
         <v>29.05153717</v>
       </c>
-      <c r="X602" s="3">
+      <c r="X602" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y602" s="3">
+      <c r="Y602" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z602" s="3">
+      <c r="Z602" s="4">
         <v>22.6</v>
       </c>
       <c r="AC602" s="4">
@@ -46527,13 +46527,13 @@
       <c r="W603" s="3">
         <v>27.89391972</v>
       </c>
-      <c r="X603" s="3">
+      <c r="X603" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y603" s="3">
+      <c r="Y603" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z603" s="3">
+      <c r="Z603" s="4">
         <v>22.7</v>
       </c>
       <c r="AC603" s="4">
@@ -46623,13 +46623,13 @@
       <c r="W604" s="3">
         <v>27.328083360000001</v>
       </c>
-      <c r="X604" s="3">
+      <c r="X604" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y604" s="3">
+      <c r="Y604" s="4">
         <v>25.5</v>
       </c>
-      <c r="Z604" s="3">
+      <c r="Z604" s="4">
         <v>21.4</v>
       </c>
       <c r="AC604" s="4">
@@ -46719,13 +46719,13 @@
       <c r="W605" s="3">
         <v>26.37275619</v>
       </c>
-      <c r="X605" s="3">
+      <c r="X605" s="4">
         <v>15.4</v>
       </c>
-      <c r="Y605" s="3">
+      <c r="Y605" s="4">
         <v>24.6</v>
       </c>
-      <c r="Z605" s="3">
+      <c r="Z605" s="4">
         <v>20</v>
       </c>
       <c r="AC605" s="4">
@@ -46815,13 +46815,13 @@
       <c r="W606" s="3">
         <v>25.593646039999999</v>
       </c>
-      <c r="X606" s="3">
+      <c r="X606" s="4">
         <v>14.9</v>
       </c>
-      <c r="Y606" s="3">
+      <c r="Y606" s="4">
         <v>23.9</v>
       </c>
-      <c r="Z606" s="3">
+      <c r="Z606" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AC606" s="4">
@@ -46911,13 +46911,13 @@
       <c r="W607" s="3">
         <v>23.92983366</v>
       </c>
-      <c r="X607" s="3">
+      <c r="X607" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y607" s="3">
+      <c r="Y607" s="4">
         <v>22.5</v>
       </c>
-      <c r="Z607" s="3">
+      <c r="Z607" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AC607" s="4">
@@ -47007,13 +47007,13 @@
       <c r="W608" s="3">
         <v>24.098090670000001</v>
       </c>
-      <c r="X608" s="3">
+      <c r="X608" s="4">
         <v>10.5</v>
       </c>
-      <c r="Y608" s="3">
+      <c r="Y608" s="4">
         <v>22.6</v>
       </c>
-      <c r="Z608" s="3">
+      <c r="Z608" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="AC608" s="4">
@@ -47103,13 +47103,13 @@
       <c r="W609" s="3">
         <v>26.177858220000001</v>
       </c>
-      <c r="X609" s="3">
+      <c r="X609" s="4">
         <v>12.2</v>
       </c>
-      <c r="Y609" s="3">
+      <c r="Y609" s="4">
         <v>25.4</v>
       </c>
-      <c r="Z609" s="3">
+      <c r="Z609" s="4">
         <v>18.8</v>
       </c>
       <c r="AC609" s="4">
@@ -47199,13 +47199,13 @@
       <c r="W610" s="3">
         <v>29.803265740000001</v>
       </c>
-      <c r="X610" s="3">
+      <c r="X610" s="4">
         <v>14.8</v>
       </c>
-      <c r="Y610" s="3">
+      <c r="Y610" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z610" s="3">
+      <c r="Z610" s="4">
         <v>21.8</v>
       </c>
       <c r="AC610" s="4">
@@ -47295,13 +47295,13 @@
       <c r="W611" s="3">
         <v>32.295004300000002</v>
       </c>
-      <c r="X611" s="3">
+      <c r="X611" s="4">
         <v>17.3</v>
       </c>
-      <c r="Y611" s="3">
+      <c r="Y611" s="4">
         <v>29.6</v>
       </c>
-      <c r="Z611" s="3">
+      <c r="Z611" s="4">
         <v>23.5</v>
       </c>
       <c r="AC611" s="4">
@@ -47391,13 +47391,13 @@
       <c r="W612" s="3">
         <v>33.185599099999997</v>
       </c>
-      <c r="X612" s="3">
+      <c r="X612" s="4">
         <v>20</v>
       </c>
-      <c r="Y612" s="3">
+      <c r="Y612" s="4">
         <v>32</v>
       </c>
-      <c r="Z612" s="3">
+      <c r="Z612" s="4">
         <v>26</v>
       </c>
       <c r="AC612" s="4">
@@ -47487,13 +47487,13 @@
       <c r="W613" s="3">
         <v>29.424777859999999</v>
       </c>
-      <c r="X613" s="3">
+      <c r="X613" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y613" s="3">
+      <c r="Y613" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z613" s="3">
+      <c r="Z613" s="4">
         <v>22.9</v>
       </c>
       <c r="AC613" s="4">
@@ -47583,13 +47583,13 @@
       <c r="W614" s="3">
         <v>28.598860869999999</v>
       </c>
-      <c r="X614" s="3">
+      <c r="X614" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y614" s="3">
+      <c r="Y614" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z614" s="3">
+      <c r="Z614" s="4">
         <v>22.7</v>
       </c>
       <c r="AC614" s="4">
@@ -47679,13 +47679,13 @@
       <c r="W615" s="3">
         <v>26.994808280000001</v>
       </c>
-      <c r="X615" s="3">
+      <c r="X615" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y615" s="3">
+      <c r="Y615" s="4">
         <v>25.5</v>
       </c>
-      <c r="Z615" s="3">
+      <c r="Z615" s="4">
         <v>21.7</v>
       </c>
       <c r="AC615" s="4">
@@ -47775,13 +47775,13 @@
       <c r="W616" s="3">
         <v>28.266044399999998</v>
       </c>
-      <c r="X616" s="3">
+      <c r="X616" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y616" s="3">
+      <c r="Y616" s="4">
         <v>27</v>
       </c>
-      <c r="Z616" s="3">
+      <c r="Z616" s="4">
         <v>22.7</v>
       </c>
       <c r="AC616" s="4">
@@ -47871,13 +47871,13 @@
       <c r="W617" s="3">
         <v>26.5352815</v>
       </c>
-      <c r="X617" s="3">
+      <c r="X617" s="4">
         <v>15.4</v>
       </c>
-      <c r="Y617" s="3">
+      <c r="Y617" s="4">
         <v>25.3</v>
       </c>
-      <c r="Z617" s="3">
+      <c r="Z617" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="AC617" s="4">
@@ -47967,13 +47967,13 @@
       <c r="W618" s="3">
         <v>25.850469239999999</v>
       </c>
-      <c r="X618" s="3">
+      <c r="X618" s="4">
         <v>12</v>
       </c>
-      <c r="Y618" s="3">
+      <c r="Y618" s="4">
         <v>24.3</v>
       </c>
-      <c r="Z618" s="3">
+      <c r="Z618" s="4">
         <v>18.2</v>
       </c>
       <c r="AC618" s="4">
@@ -48063,13 +48063,13 @@
       <c r="W619" s="3">
         <v>26.613808219999999</v>
       </c>
-      <c r="X619" s="3">
+      <c r="X619" s="4">
         <v>12.9</v>
       </c>
-      <c r="Y619" s="3">
+      <c r="Y619" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z619" s="3">
+      <c r="Z619" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="AC619" s="4">
@@ -48159,13 +48159,13 @@
       <c r="W620" s="3">
         <v>23.889111719999999</v>
       </c>
-      <c r="X620" s="3">
+      <c r="X620" s="4">
         <v>11.5</v>
       </c>
-      <c r="Y620" s="3">
+      <c r="Y620" s="4">
         <v>22.2</v>
       </c>
-      <c r="Z620" s="3">
+      <c r="Z620" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="AC620" s="4">
@@ -48255,13 +48255,13 @@
       <c r="W621" s="3">
         <v>26.881047219999999</v>
       </c>
-      <c r="X621" s="3">
+      <c r="X621" s="4">
         <v>12.7</v>
       </c>
-      <c r="Y621" s="3">
+      <c r="Y621" s="4">
         <v>25.3</v>
       </c>
-      <c r="Z621" s="3">
+      <c r="Z621" s="4">
         <v>19</v>
       </c>
       <c r="AC621" s="4">
@@ -48351,13 +48351,13 @@
       <c r="W622" s="3">
         <v>29.01869851</v>
       </c>
-      <c r="X622" s="3">
+      <c r="X622" s="4">
         <v>15.8</v>
       </c>
-      <c r="Y622" s="3">
+      <c r="Y622" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z622" s="3">
+      <c r="Z622" s="4">
         <v>21.5</v>
       </c>
       <c r="AC622" s="4">
@@ -48447,13 +48447,13 @@
       <c r="W623" s="3">
         <v>30.156704850000001</v>
       </c>
-      <c r="X623" s="3">
+      <c r="X623" s="4">
         <v>15.9</v>
       </c>
-      <c r="Y623" s="3">
+      <c r="Y623" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z623" s="3">
+      <c r="Z623" s="4">
         <v>21.8</v>
       </c>
       <c r="AC623" s="4">
@@ -48543,13 +48543,13 @@
       <c r="W624" s="3">
         <v>32.127223469999997</v>
       </c>
-      <c r="X624" s="3">
+      <c r="X624" s="4">
         <v>19.5</v>
       </c>
-      <c r="Y624" s="3">
+      <c r="Y624" s="4">
         <v>30</v>
       </c>
-      <c r="Z624" s="3">
+      <c r="Z624" s="4">
         <v>24.8</v>
       </c>
       <c r="AC624" s="4">
@@ -48639,13 +48639,13 @@
       <c r="W625" s="3">
         <v>29.11115272</v>
       </c>
-      <c r="X625" s="3">
+      <c r="X625" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y625" s="3">
+      <c r="Y625" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z625" s="3">
+      <c r="Z625" s="4">
         <v>22.7</v>
       </c>
       <c r="AC625" s="4">
@@ -48735,13 +48735,13 @@
       <c r="W626" s="3">
         <v>28.937086350000001</v>
       </c>
-      <c r="X626" s="3">
+      <c r="X626" s="4">
         <v>19.5</v>
       </c>
-      <c r="Y626" s="3">
+      <c r="Y626" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z626" s="3">
+      <c r="Z626" s="4">
         <v>23.6</v>
       </c>
       <c r="AC626" s="4">
@@ -48831,13 +48831,13 @@
       <c r="W627" s="3">
         <v>28.719244029999999</v>
       </c>
-      <c r="X627" s="3">
+      <c r="X627" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y627" s="3">
+      <c r="Y627" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z627" s="3">
+      <c r="Z627" s="4">
         <v>23.2</v>
       </c>
       <c r="AC627" s="4">
@@ -48927,13 +48927,13 @@
       <c r="W628" s="3">
         <v>29.534523310000001</v>
       </c>
-      <c r="X628" s="3">
+      <c r="X628" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y628" s="3">
+      <c r="Y628" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z628" s="3">
+      <c r="Z628" s="4">
         <v>23.6</v>
       </c>
       <c r="AC628" s="4">
@@ -49023,13 +49023,13 @@
       <c r="W629" s="3">
         <v>28.308617420000001</v>
       </c>
-      <c r="X629" s="3">
+      <c r="X629" s="4">
         <v>16</v>
       </c>
-      <c r="Y629" s="3">
+      <c r="Y629" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z629" s="3">
+      <c r="Z629" s="4">
         <v>21.4</v>
       </c>
       <c r="AC629" s="4">
@@ -49119,13 +49119,13 @@
       <c r="W630" s="3">
         <v>27.67665714</v>
       </c>
-      <c r="X630" s="3">
+      <c r="X630" s="4">
         <v>13.4</v>
       </c>
-      <c r="Y630" s="3">
+      <c r="Y630" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z630" s="3">
+      <c r="Z630" s="4">
         <v>20.100000000000001</v>
       </c>
       <c r="AC630" s="4">
@@ -49215,13 +49215,13 @@
       <c r="W631" s="3">
         <v>25.255170920000001</v>
       </c>
-      <c r="X631" s="3">
+      <c r="X631" s="4">
         <v>11.3</v>
       </c>
-      <c r="Y631" s="3">
+      <c r="Y631" s="4">
         <v>24</v>
       </c>
-      <c r="Z631" s="3">
+      <c r="Z631" s="4">
         <v>17.7</v>
       </c>
       <c r="AC631" s="4">
@@ -49311,13 +49311,13 @@
       <c r="W632" s="3">
         <v>25.107665069999999</v>
       </c>
-      <c r="X632" s="3">
+      <c r="X632" s="4">
         <v>11.5</v>
       </c>
-      <c r="Y632" s="3">
+      <c r="Y632" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z632" s="3">
+      <c r="Z632" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AC632" s="4">
@@ -49407,13 +49407,13 @@
       <c r="W633" s="3">
         <v>25.62706906</v>
       </c>
-      <c r="X633" s="3">
+      <c r="X633" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y633" s="3">
+      <c r="Y633" s="4">
         <v>24.7</v>
       </c>
-      <c r="Z633" s="3">
+      <c r="Z633" s="4">
         <v>18.8</v>
       </c>
       <c r="AC633" s="4">
@@ -49503,13 +49503,13 @@
       <c r="W634" s="3">
         <v>29.0010929</v>
       </c>
-      <c r="X634" s="3">
+      <c r="X634" s="4">
         <v>15.2</v>
       </c>
-      <c r="Y634" s="3">
+      <c r="Y634" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z634" s="3">
+      <c r="Z634" s="4">
         <v>21.5</v>
       </c>
       <c r="AC634" s="4">
@@ -49599,13 +49599,13 @@
       <c r="W635" s="3">
         <v>32.29580687</v>
       </c>
-      <c r="X635" s="3">
+      <c r="X635" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y635" s="3">
+      <c r="Y635" s="4">
         <v>30.1</v>
       </c>
-      <c r="Z635" s="3">
+      <c r="Z635" s="4">
         <v>24</v>
       </c>
       <c r="AC635" s="4">
@@ -49695,13 +49695,13 @@
       <c r="W636" s="3">
         <v>31.879411569999998</v>
       </c>
-      <c r="X636" s="3">
+      <c r="X636" s="4">
         <v>19.2</v>
       </c>
-      <c r="Y636" s="3">
+      <c r="Y636" s="4">
         <v>29.8</v>
       </c>
-      <c r="Z636" s="3">
+      <c r="Z636" s="4">
         <v>24.5</v>
       </c>
       <c r="AC636" s="4">
@@ -49791,13 +49791,13 @@
       <c r="W637" s="3">
         <v>29.390112160000001</v>
       </c>
-      <c r="X637" s="3">
+      <c r="X637" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y637" s="3">
+      <c r="Y637" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z637" s="3">
+      <c r="Z637" s="4">
         <v>23.7</v>
       </c>
       <c r="AC637" s="4">
@@ -49887,13 +49887,13 @@
       <c r="W638" s="3">
         <v>28.16049855</v>
       </c>
-      <c r="X638" s="3">
+      <c r="X638" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y638" s="3">
+      <c r="Y638" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z638" s="3">
+      <c r="Z638" s="4">
         <v>22.7</v>
       </c>
       <c r="AC638" s="4">
@@ -49983,13 +49983,13 @@
       <c r="W639" s="3">
         <v>28.06530841</v>
       </c>
-      <c r="X639" s="3">
+      <c r="X639" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y639" s="3">
+      <c r="Y639" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z639" s="3">
+      <c r="Z639" s="4">
         <v>22.3</v>
       </c>
       <c r="AD639" s="3">
@@ -50076,13 +50076,13 @@
       <c r="W640" s="3">
         <v>27.482323189999999</v>
       </c>
-      <c r="X640" s="3">
+      <c r="X640" s="4">
         <v>18</v>
       </c>
-      <c r="Y640" s="3">
+      <c r="Y640" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z640" s="3">
+      <c r="Z640" s="4">
         <v>22.4</v>
       </c>
       <c r="AD640" s="3">
@@ -50169,13 +50169,13 @@
       <c r="W641" s="3">
         <v>27.024576289999999</v>
       </c>
-      <c r="X641" s="3">
+      <c r="X641" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="Y641" s="3">
+      <c r="Y641" s="4">
         <v>25</v>
       </c>
-      <c r="Z641" s="3">
+      <c r="Z641" s="4">
         <v>20.7</v>
       </c>
       <c r="AD641" s="3">
@@ -50262,13 +50262,13 @@
       <c r="W642" s="3">
         <v>26.170859799999999</v>
       </c>
-      <c r="X642" s="3">
+      <c r="X642" s="4">
         <v>13.3</v>
       </c>
-      <c r="Y642" s="3">
+      <c r="Y642" s="4">
         <v>24.7</v>
       </c>
-      <c r="Z642" s="3">
+      <c r="Z642" s="4">
         <v>19</v>
       </c>
       <c r="AD642" s="3">
@@ -50355,13 +50355,13 @@
       <c r="W643" s="3">
         <v>24.64783409</v>
       </c>
-      <c r="X643" s="3">
+      <c r="X643" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y643" s="3">
+      <c r="Y643" s="4">
         <v>23.3</v>
       </c>
-      <c r="Z643" s="3">
+      <c r="Z643" s="4">
         <v>17.5</v>
       </c>
       <c r="AD643" s="3">
@@ -50448,13 +50448,13 @@
       <c r="W644" s="3">
         <v>24.212575699999999</v>
       </c>
-      <c r="X644" s="3">
+      <c r="X644" s="4">
         <v>12.1</v>
       </c>
-      <c r="Y644" s="3">
+      <c r="Y644" s="4">
         <v>22.4</v>
       </c>
-      <c r="Z644" s="3">
+      <c r="Z644" s="4">
         <v>17.3</v>
       </c>
       <c r="AD644" s="3">
@@ -50541,13 +50541,13 @@
       <c r="W645" s="3">
         <v>25.62435069</v>
       </c>
-      <c r="X645" s="3">
+      <c r="X645" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y645" s="3">
+      <c r="Y645" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z645" s="3">
+      <c r="Z645" s="4">
         <v>17.8</v>
       </c>
       <c r="AA645" s="5">
@@ -50640,13 +50640,13 @@
       <c r="W646" s="3">
         <v>28.844107879999999</v>
       </c>
-      <c r="X646" s="3">
+      <c r="X646" s="4">
         <v>14.6</v>
       </c>
-      <c r="Y646" s="3">
+      <c r="Y646" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z646" s="3">
+      <c r="Z646" s="4">
         <v>20.6</v>
       </c>
       <c r="AA646" s="5">
@@ -50739,13 +50739,13 @@
       <c r="W647" s="3">
         <v>30.198725880000001</v>
       </c>
-      <c r="X647" s="3">
+      <c r="X647" s="4">
         <v>15.9</v>
       </c>
-      <c r="Y647" s="3">
+      <c r="Y647" s="4">
         <v>27.7</v>
       </c>
-      <c r="Z647" s="3">
+      <c r="Z647" s="4">
         <v>21.8</v>
       </c>
       <c r="AA647" s="5">
@@ -50838,13 +50838,13 @@
       <c r="W648" s="3">
         <v>31.517122959999998</v>
       </c>
-      <c r="X648" s="3">
+      <c r="X648" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y648" s="3">
+      <c r="Y648" s="4">
         <v>28.8</v>
       </c>
-      <c r="Z648" s="3">
+      <c r="Z648" s="4">
         <v>23.4</v>
       </c>
       <c r="AA648" s="5">
@@ -50937,13 +50937,13 @@
       <c r="W649" s="3">
         <v>31.385379050000001</v>
       </c>
-      <c r="X649" s="3">
+      <c r="X649" s="4">
         <v>19.3</v>
       </c>
-      <c r="Y649" s="3">
+      <c r="Y649" s="4">
         <v>30.5</v>
       </c>
-      <c r="Z649" s="3">
+      <c r="Z649" s="4">
         <v>24.9</v>
       </c>
       <c r="AA649" s="5">
@@ -51038,13 +51038,13 @@
       <c r="W650" s="3">
         <v>28.814363910000001</v>
       </c>
-      <c r="X650" s="3">
+      <c r="X650" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y650" s="3">
+      <c r="Y650" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z650" s="3">
+      <c r="Z650" s="4">
         <v>23</v>
       </c>
       <c r="AA650" s="5">
@@ -51139,13 +51139,13 @@
       <c r="W651" s="3">
         <v>28.223401110000001</v>
       </c>
-      <c r="X651" s="3">
+      <c r="X651" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y651" s="3">
+      <c r="Y651" s="4">
         <v>26.5</v>
       </c>
-      <c r="Z651" s="3">
+      <c r="Z651" s="4">
         <v>22.7</v>
       </c>
       <c r="AA651" s="5">
@@ -51240,13 +51240,13 @@
       <c r="W652" s="3">
         <v>27.794066740000002</v>
       </c>
-      <c r="X652" s="3">
+      <c r="X652" s="4">
         <v>19</v>
       </c>
-      <c r="Y652" s="3">
+      <c r="Y652" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z652" s="3">
+      <c r="Z652" s="4">
         <v>23.1</v>
       </c>
       <c r="AA652" s="5">
@@ -51341,13 +51341,13 @@
       <c r="W653" s="3">
         <v>27.723422370000002</v>
       </c>
-      <c r="X653" s="3">
+      <c r="X653" s="4">
         <v>16.8</v>
       </c>
-      <c r="Y653" s="3">
+      <c r="Y653" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z653" s="3">
+      <c r="Z653" s="4">
         <v>21.3</v>
       </c>
       <c r="AA653" s="5">
@@ -51442,13 +51442,13 @@
       <c r="W654" s="3">
         <v>26.109430159999999</v>
       </c>
-      <c r="X654" s="3">
+      <c r="X654" s="4">
         <v>13.6</v>
       </c>
-      <c r="Y654" s="3">
+      <c r="Y654" s="4">
         <v>24</v>
       </c>
-      <c r="Z654" s="3">
+      <c r="Z654" s="4">
         <v>18.8</v>
       </c>
       <c r="AA654" s="5">
@@ -51543,13 +51543,13 @@
       <c r="W655" s="3">
         <v>24.932667609999999</v>
       </c>
-      <c r="X655" s="3">
+      <c r="X655" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y655" s="3">
+      <c r="Y655" s="4">
         <v>23.4</v>
       </c>
-      <c r="Z655" s="3">
+      <c r="Z655" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="AA655" s="5">
@@ -51644,13 +51644,13 @@
       <c r="W656" s="3">
         <v>24.088826009999998</v>
       </c>
-      <c r="X656" s="3">
+      <c r="X656" s="4">
         <v>11.6</v>
       </c>
-      <c r="Y656" s="3">
+      <c r="Y656" s="4">
         <v>21.9</v>
       </c>
-      <c r="Z656" s="3">
+      <c r="Z656" s="4">
         <v>16.8</v>
       </c>
       <c r="AA656" s="5">
@@ -51745,13 +51745,13 @@
       <c r="W657" s="3">
         <v>24.962072249999999</v>
       </c>
-      <c r="X657" s="3">
+      <c r="X657" s="4">
         <v>11.6</v>
       </c>
-      <c r="Y657" s="3">
+      <c r="Y657" s="4">
         <v>22</v>
       </c>
-      <c r="Z657" s="3">
+      <c r="Z657" s="4">
         <v>16.8</v>
       </c>
       <c r="AA657" s="5">
@@ -51846,13 +51846,13 @@
       <c r="W658" s="3">
         <v>29.21833883</v>
       </c>
-      <c r="X658" s="3">
+      <c r="X658" s="4">
         <v>15.1</v>
       </c>
-      <c r="Y658" s="3">
+      <c r="Y658" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z658" s="3">
+      <c r="Z658" s="4">
         <v>21.5</v>
       </c>
       <c r="AA658" s="5">
@@ -51947,13 +51947,13 @@
       <c r="W659" s="3">
         <v>30.315774869999998</v>
       </c>
-      <c r="X659" s="3">
+      <c r="X659" s="4">
         <v>17</v>
       </c>
-      <c r="Y659" s="3">
+      <c r="Y659" s="4">
         <v>28.9</v>
       </c>
-      <c r="Z659" s="3">
+      <c r="Z659" s="4">
         <v>23</v>
       </c>
       <c r="AA659" s="5">
@@ -52048,13 +52048,13 @@
       <c r="W660" s="3">
         <v>29.529033869999999</v>
       </c>
-      <c r="X660" s="3">
+      <c r="X660" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y660" s="3">
+      <c r="Y660" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z660" s="3">
+      <c r="Z660" s="4">
         <v>22.6</v>
       </c>
       <c r="AA660" s="5">
@@ -52149,13 +52149,13 @@
       <c r="W661" s="3">
         <v>29.70359676</v>
       </c>
-      <c r="X661" s="3">
+      <c r="X661" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y661" s="3">
+      <c r="Y661" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z661" s="3">
+      <c r="Z661" s="4">
         <v>22.9</v>
       </c>
       <c r="AA661" s="5">
@@ -52250,13 +52250,13 @@
       <c r="W662" s="3">
         <v>28.873964659999999</v>
       </c>
-      <c r="X662" s="3">
+      <c r="X662" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y662" s="3">
+      <c r="Y662" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z662" s="3">
+      <c r="Z662" s="4">
         <v>22.3</v>
       </c>
       <c r="AA662" s="5">
@@ -52351,13 +52351,13 @@
       <c r="W663" s="3">
         <v>27.79236637</v>
       </c>
-      <c r="X663" s="3">
+      <c r="X663" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y663" s="3">
+      <c r="Y663" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z663" s="3">
+      <c r="Z663" s="4">
         <v>22.7</v>
       </c>
       <c r="AA663" s="5">
@@ -52452,13 +52452,13 @@
       <c r="W664" s="3">
         <v>27.241512490000002</v>
       </c>
-      <c r="X664" s="3">
+      <c r="X664" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y664" s="3">
+      <c r="Y664" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z664" s="3">
+      <c r="Z664" s="4">
         <v>22.7</v>
       </c>
       <c r="AA664" s="5">
@@ -52553,13 +52553,13 @@
       <c r="W665" s="3">
         <v>27.163636700000001</v>
       </c>
-      <c r="X665" s="3">
+      <c r="X665" s="4">
         <v>16.2</v>
       </c>
-      <c r="Y665" s="3">
+      <c r="Y665" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z665" s="3">
+      <c r="Z665" s="4">
         <v>21.3</v>
       </c>
       <c r="AA665" s="5">
@@ -52654,13 +52654,13 @@
       <c r="W666" s="3">
         <v>25.718044809999999</v>
       </c>
-      <c r="X666" s="3">
+      <c r="X666" s="4">
         <v>13.8</v>
       </c>
-      <c r="Y666" s="3">
+      <c r="Y666" s="4">
         <v>24.7</v>
       </c>
-      <c r="Z666" s="3">
+      <c r="Z666" s="4">
         <v>19.3</v>
       </c>
       <c r="AA666" s="5">
@@ -52755,13 +52755,13 @@
       <c r="W667" s="3">
         <v>24.226889679999999</v>
       </c>
-      <c r="X667" s="3">
+      <c r="X667" s="4">
         <v>11.4</v>
       </c>
-      <c r="Y667" s="3">
+      <c r="Y667" s="4">
         <v>23.1</v>
       </c>
-      <c r="Z667" s="3">
+      <c r="Z667" s="4">
         <v>17.2</v>
       </c>
       <c r="AA667" s="5">
@@ -52856,13 +52856,13 @@
       <c r="W668" s="3">
         <v>24.607212010000001</v>
       </c>
-      <c r="X668" s="3">
+      <c r="X668" s="4">
         <v>11.4</v>
       </c>
-      <c r="Y668" s="3">
+      <c r="Y668" s="4">
         <v>22.6</v>
       </c>
-      <c r="Z668" s="3">
+      <c r="Z668" s="4">
         <v>17</v>
       </c>
       <c r="AA668" s="5">
@@ -52957,13 +52957,13 @@
       <c r="W669" s="3">
         <v>27.231141990000001</v>
       </c>
-      <c r="X669" s="3">
+      <c r="X669" s="4">
         <v>13.5</v>
       </c>
-      <c r="Y669" s="3">
+      <c r="Y669" s="4">
         <v>25.4</v>
       </c>
-      <c r="Z669" s="3">
+      <c r="Z669" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AA669" s="5">
@@ -53058,13 +53058,13 @@
       <c r="W670" s="3">
         <v>29.68948249</v>
       </c>
-      <c r="X670" s="3">
+      <c r="X670" s="4">
         <v>15.1</v>
       </c>
-      <c r="Y670" s="3">
+      <c r="Y670" s="4">
         <v>28</v>
       </c>
-      <c r="Z670" s="3">
+      <c r="Z670" s="4">
         <v>21.6</v>
       </c>
       <c r="AA670" s="5">
@@ -53159,13 +53159,13 @@
       <c r="W671" s="3">
         <v>31.972369700000002</v>
       </c>
-      <c r="X671" s="3">
+      <c r="X671" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y671" s="3">
+      <c r="Y671" s="4">
         <v>29.5</v>
       </c>
-      <c r="Z671" s="3">
+      <c r="Z671" s="4">
         <v>23.1</v>
       </c>
       <c r="AA671" s="5">
@@ -53260,13 +53260,13 @@
       <c r="W672" s="3">
         <v>32.076082030000002</v>
       </c>
-      <c r="X672" s="3">
+      <c r="X672" s="4">
         <v>19.7</v>
       </c>
-      <c r="Y672" s="3">
+      <c r="Y672" s="4">
         <v>31</v>
       </c>
-      <c r="Z672" s="3">
+      <c r="Z672" s="4">
         <v>25.4</v>
       </c>
       <c r="AA672" s="5">
@@ -53361,13 +53361,13 @@
       <c r="W673" s="3">
         <v>30.170493650000001</v>
       </c>
-      <c r="X673" s="3">
+      <c r="X673" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y673" s="3">
+      <c r="Y673" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z673" s="3">
+      <c r="Z673" s="4">
         <v>23.4</v>
       </c>
       <c r="AA673" s="5">
@@ -53462,13 +53462,13 @@
       <c r="W674" s="3">
         <v>28.940460269999999</v>
       </c>
-      <c r="X674" s="3">
+      <c r="X674" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y674" s="3">
+      <c r="Y674" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z674" s="3">
+      <c r="Z674" s="4">
         <v>22.3</v>
       </c>
       <c r="AA674" s="5">
@@ -53563,13 +53563,13 @@
       <c r="W675" s="3">
         <v>28.612947399999999</v>
       </c>
-      <c r="X675" s="3">
+      <c r="X675" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y675" s="3">
+      <c r="Y675" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z675" s="3">
+      <c r="Z675" s="4">
         <v>22.4</v>
       </c>
       <c r="AA675" s="5">
@@ -53664,13 +53664,13 @@
       <c r="W676" s="3">
         <v>28.495941859999999</v>
       </c>
-      <c r="X676" s="3">
+      <c r="X676" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y676" s="3">
+      <c r="Y676" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z676" s="3">
+      <c r="Z676" s="4">
         <v>23.2</v>
       </c>
       <c r="AA676" s="5">
@@ -53765,13 +53765,13 @@
       <c r="W677" s="3">
         <v>27.858055719999999</v>
       </c>
-      <c r="X677" s="3">
+      <c r="X677" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="Y677" s="3">
+      <c r="Y677" s="4">
         <v>26.1</v>
       </c>
-      <c r="Z677" s="3">
+      <c r="Z677" s="4">
         <v>21.1</v>
       </c>
       <c r="AA677" s="5">
@@ -53866,13 +53866,13 @@
       <c r="W678" s="3">
         <v>27.533496070000002</v>
       </c>
-      <c r="X678" s="3">
+      <c r="X678" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y678" s="3">
+      <c r="Y678" s="4">
         <v>24</v>
       </c>
-      <c r="Z678" s="3">
+      <c r="Z678" s="4">
         <v>18.600000000000001</v>
       </c>
       <c r="AA678" s="5">
@@ -53967,13 +53967,13 @@
       <c r="W679" s="3">
         <v>24.16875907</v>
       </c>
-      <c r="X679" s="3">
+      <c r="X679" s="4">
         <v>12</v>
       </c>
-      <c r="Y679" s="3">
+      <c r="Y679" s="4">
         <v>22.3</v>
       </c>
-      <c r="Z679" s="3">
+      <c r="Z679" s="4">
         <v>17.2</v>
       </c>
       <c r="AA679" s="5">
@@ -54068,13 +54068,13 @@
       <c r="W680" s="3">
         <v>26.35630819</v>
       </c>
-      <c r="X680" s="3">
+      <c r="X680" s="4">
         <v>12.6</v>
       </c>
-      <c r="Y680" s="3">
+      <c r="Y680" s="4">
         <v>24.5</v>
       </c>
-      <c r="Z680" s="3">
+      <c r="Z680" s="4">
         <v>18.600000000000001</v>
       </c>
       <c r="AA680" s="5">
@@ -54169,13 +54169,13 @@
       <c r="W681" s="3">
         <v>26.4810315</v>
       </c>
-      <c r="X681" s="3">
+      <c r="X681" s="4">
         <v>13.6</v>
       </c>
-      <c r="Y681" s="3">
+      <c r="Y681" s="4">
         <v>24.3</v>
       </c>
-      <c r="Z681" s="3">
+      <c r="Z681" s="4">
         <v>19</v>
       </c>
       <c r="AA681" s="5">
@@ -54270,13 +54270,13 @@
       <c r="W682" s="3">
         <v>29.141630840000001</v>
       </c>
-      <c r="X682" s="3">
+      <c r="X682" s="4">
         <v>15.3</v>
       </c>
-      <c r="Y682" s="3">
+      <c r="Y682" s="4">
         <v>26.8</v>
       </c>
-      <c r="Z682" s="3">
+      <c r="Z682" s="4">
         <v>21.1</v>
       </c>
       <c r="AA682" s="5">
@@ -54371,13 +54371,13 @@
       <c r="W683" s="3">
         <v>31.869039229999998</v>
       </c>
-      <c r="X683" s="3">
+      <c r="X683" s="4">
         <v>17.8</v>
       </c>
-      <c r="Y683" s="3">
+      <c r="Y683" s="4">
         <v>29.4</v>
       </c>
-      <c r="Z683" s="3">
+      <c r="Z683" s="4">
         <v>23.6</v>
       </c>
       <c r="AA683" s="5">
@@ -54472,13 +54472,13 @@
       <c r="W684" s="3">
         <v>31.606514839999999</v>
       </c>
-      <c r="X684" s="3">
+      <c r="X684" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y684" s="3">
+      <c r="Y684" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z684" s="3">
+      <c r="Z684" s="4">
         <v>23.1</v>
       </c>
       <c r="AA684" s="5">
@@ -54573,13 +54573,13 @@
       <c r="W685" s="3">
         <v>30.25085666</v>
       </c>
-      <c r="X685" s="3">
+      <c r="X685" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y685" s="3">
+      <c r="Y685" s="4">
         <v>27.6</v>
       </c>
-      <c r="Z685" s="3">
+      <c r="Z685" s="4">
         <v>23</v>
       </c>
       <c r="AA685" s="5">
@@ -54674,13 +54674,13 @@
       <c r="W686" s="3">
         <v>28.950599610000001</v>
       </c>
-      <c r="X686" s="3">
+      <c r="X686" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y686" s="3">
+      <c r="Y686" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z686" s="3">
+      <c r="Z686" s="4">
         <v>23.3</v>
       </c>
       <c r="AA686" s="5">
@@ -54775,13 +54775,13 @@
       <c r="W687" s="3">
         <v>29.3211811</v>
       </c>
-      <c r="X687" s="3">
+      <c r="X687" s="4">
         <v>19</v>
       </c>
-      <c r="Y687" s="3">
+      <c r="Y687" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z687" s="3">
+      <c r="Z687" s="4">
         <v>23.4</v>
       </c>
       <c r="AA687" s="5">
@@ -54876,13 +54876,13 @@
       <c r="W688" s="3">
         <v>28.47939586</v>
       </c>
-      <c r="X688" s="3">
+      <c r="X688" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y688" s="3">
+      <c r="Y688" s="4">
         <v>27.2</v>
       </c>
-      <c r="Z688" s="3">
+      <c r="Z688" s="4">
         <v>22.9</v>
       </c>
       <c r="AA688" s="5">
@@ -54977,13 +54977,13 @@
       <c r="W689" s="3">
         <v>27.799641250000001</v>
       </c>
-      <c r="X689" s="3">
+      <c r="X689" s="4">
         <v>15.5</v>
       </c>
-      <c r="Y689" s="3">
+      <c r="Y689" s="4">
         <v>25.7</v>
       </c>
-      <c r="Z689" s="3">
+      <c r="Z689" s="4">
         <v>20.6</v>
       </c>
       <c r="AA689" s="5">
@@ -55078,13 +55078,13 @@
       <c r="W690" s="3">
         <v>26.75880373</v>
       </c>
-      <c r="X690" s="3">
+      <c r="X690" s="4">
         <v>13.3</v>
       </c>
-      <c r="Y690" s="3">
+      <c r="Y690" s="4">
         <v>25.4</v>
       </c>
-      <c r="Z690" s="3">
+      <c r="Z690" s="4">
         <v>19.3</v>
       </c>
       <c r="AA690" s="5">
@@ -55179,13 +55179,13 @@
       <c r="W691" s="3">
         <v>24.521183879999999</v>
       </c>
-      <c r="X691" s="3">
+      <c r="X691" s="4">
         <v>11.9</v>
       </c>
-      <c r="Y691" s="3">
+      <c r="Y691" s="4">
         <v>22.8</v>
       </c>
-      <c r="Z691" s="3">
+      <c r="Z691" s="4">
         <v>17.3</v>
       </c>
       <c r="AA691" s="5">
@@ -55280,13 +55280,13 @@
       <c r="W692" s="3">
         <v>23.816090169999999</v>
       </c>
-      <c r="X692" s="3">
+      <c r="X692" s="4">
         <v>11.7</v>
       </c>
-      <c r="Y692" s="3">
+      <c r="Y692" s="4">
         <v>21.6</v>
       </c>
-      <c r="Z692" s="3">
+      <c r="Z692" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="AA692" s="5">
@@ -55381,13 +55381,13 @@
       <c r="W693" s="3">
         <v>25.974084860000001</v>
       </c>
-      <c r="X693" s="3">
+      <c r="X693" s="4">
         <v>12</v>
       </c>
-      <c r="Y693" s="3">
+      <c r="Y693" s="4">
         <v>25</v>
       </c>
-      <c r="Z693" s="3">
+      <c r="Z693" s="4">
         <v>18.5</v>
       </c>
       <c r="AA693" s="5">
@@ -55482,13 +55482,13 @@
       <c r="W694" s="3">
         <v>29.542016400000001</v>
       </c>
-      <c r="X694" s="3">
+      <c r="X694" s="4">
         <v>14.7</v>
       </c>
-      <c r="Y694" s="3">
+      <c r="Y694" s="4">
         <v>29.1</v>
       </c>
-      <c r="Z694" s="3">
+      <c r="Z694" s="4">
         <v>21.9</v>
       </c>
       <c r="AA694" s="5">
@@ -55583,13 +55583,13 @@
       <c r="W695" s="3">
         <v>32.979015840000002</v>
       </c>
-      <c r="X695" s="3">
+      <c r="X695" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="Y695" s="3">
+      <c r="Y695" s="4">
         <v>30.2</v>
       </c>
-      <c r="Z695" s="3">
+      <c r="Z695" s="4">
         <v>23.4</v>
       </c>
       <c r="AA695" s="5">
@@ -55684,13 +55684,13 @@
       <c r="W696" s="3">
         <v>32.302713750000002</v>
       </c>
-      <c r="X696" s="3">
+      <c r="X696" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="Y696" s="3">
+      <c r="Y696" s="4">
         <v>30.2</v>
       </c>
-      <c r="Z696" s="3">
+      <c r="Z696" s="4">
         <v>24.6</v>
       </c>
       <c r="AA696" s="5">
@@ -55785,13 +55785,13 @@
       <c r="W697" s="3">
         <v>29.93263155</v>
       </c>
-      <c r="X697" s="3">
+      <c r="X697" s="4">
         <v>19.5</v>
       </c>
-      <c r="Y697" s="3">
+      <c r="Y697" s="4">
         <v>28.7</v>
       </c>
-      <c r="Z697" s="3">
+      <c r="Z697" s="4">
         <v>24.1</v>
       </c>
       <c r="AA697" s="5">
@@ -55886,13 +55886,13 @@
       <c r="W698" s="3">
         <v>29.624862929999999</v>
       </c>
-      <c r="X698" s="3">
+      <c r="X698" s="4">
         <v>19.5</v>
       </c>
-      <c r="Y698" s="3">
+      <c r="Y698" s="4">
         <v>27.9</v>
       </c>
-      <c r="Z698" s="3">
+      <c r="Z698" s="4">
         <v>23.7</v>
       </c>
       <c r="AA698" s="5">
@@ -55987,13 +55987,13 @@
       <c r="W699" s="3">
         <v>29.148759630000001</v>
       </c>
-      <c r="X699" s="3">
+      <c r="X699" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y699" s="3">
+      <c r="Y699" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z699" s="3">
+      <c r="Z699" s="4">
         <v>22.6</v>
       </c>
       <c r="AA699" s="5">
@@ -56088,13 +56088,13 @@
       <c r="W700" s="3">
         <v>28.18153727</v>
       </c>
-      <c r="X700" s="3">
+      <c r="X700" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y700" s="3">
+      <c r="Y700" s="4">
         <v>27.3</v>
       </c>
-      <c r="Z700" s="3">
+      <c r="Z700" s="4">
         <v>22.8</v>
       </c>
       <c r="AA700" s="5">
@@ -56189,13 +56189,13 @@
       <c r="W701" s="3">
         <v>26.84502788</v>
       </c>
-      <c r="X701" s="3">
+      <c r="X701" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="Y701" s="3">
+      <c r="Y701" s="4">
         <v>25.5</v>
       </c>
-      <c r="Z701" s="3">
+      <c r="Z701" s="4">
         <v>21</v>
       </c>
       <c r="AA701" s="5">
@@ -56290,13 +56290,13 @@
       <c r="W702" s="3">
         <v>24.876466669999999</v>
       </c>
-      <c r="X702" s="3">
+      <c r="X702" s="4">
         <v>13.7</v>
       </c>
-      <c r="Y702" s="3">
+      <c r="Y702" s="4">
         <v>23</v>
       </c>
-      <c r="Z702" s="3">
+      <c r="Z702" s="4">
         <v>18.3</v>
       </c>
       <c r="AA702" s="5">
@@ -56391,13 +56391,13 @@
       <c r="W703" s="3">
         <v>24.127854979999999</v>
       </c>
-      <c r="X703" s="3">
+      <c r="X703" s="4">
         <v>11.5</v>
       </c>
-      <c r="Y703" s="3">
+      <c r="Y703" s="4">
         <v>22</v>
       </c>
-      <c r="Z703" s="3">
+      <c r="Z703" s="4">
         <v>16.8</v>
       </c>
       <c r="AA703" s="5">
@@ -56492,13 +56492,13 @@
       <c r="W704" s="3">
         <v>24.52761181</v>
       </c>
-      <c r="X704" s="3">
+      <c r="X704" s="4">
         <v>11</v>
       </c>
-      <c r="Y704" s="3">
+      <c r="Y704" s="4">
         <v>22.1</v>
       </c>
-      <c r="Z704" s="3">
+      <c r="Z704" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="AA704" s="5">
@@ -56593,13 +56593,13 @@
       <c r="W705" s="3">
         <v>27.39882111</v>
       </c>
-      <c r="X705" s="3">
+      <c r="X705" s="4">
         <v>12.8</v>
       </c>
-      <c r="Y705" s="3">
+      <c r="Y705" s="4">
         <v>25.4</v>
       </c>
-      <c r="Z705" s="3">
+      <c r="Z705" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="AA705" s="5">
@@ -56694,13 +56694,13 @@
       <c r="W706" s="3">
         <v>28.713592779999999</v>
       </c>
-      <c r="X706" s="3">
+      <c r="X706" s="4">
         <v>14.7</v>
       </c>
-      <c r="Y706" s="3">
+      <c r="Y706" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z706" s="3">
+      <c r="Z706" s="4">
         <v>21.1</v>
       </c>
       <c r="AA706" s="5">
@@ -56795,13 +56795,13 @@
       <c r="W707" s="3">
         <v>31.329130030000002</v>
       </c>
-      <c r="X707" s="3">
+      <c r="X707" s="4">
         <v>17.5</v>
       </c>
-      <c r="Y707" s="3">
+      <c r="Y707" s="4">
         <v>29.1</v>
       </c>
-      <c r="Z707" s="3">
+      <c r="Z707" s="4">
         <v>23.3</v>
       </c>
       <c r="AA707" s="5">
@@ -56896,13 +56896,13 @@
       <c r="W708" s="3">
         <v>32.109305339999999</v>
       </c>
-      <c r="X708" s="3">
+      <c r="X708" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y708" s="3">
+      <c r="Y708" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z708" s="3">
+      <c r="Z708" s="4">
         <v>23.4</v>
       </c>
       <c r="AA708" s="5">
@@ -56997,13 +56997,13 @@
       <c r="W709" s="3">
         <v>28.78237682</v>
       </c>
-      <c r="X709" s="3">
+      <c r="X709" s="4">
         <v>18.8</v>
       </c>
-      <c r="Y709" s="3">
+      <c r="Y709" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z709" s="3">
+      <c r="Z709" s="4">
         <v>22.7</v>
       </c>
       <c r="AA709" s="5">
@@ -57098,13 +57098,13 @@
       <c r="W710" s="3">
         <v>29.437611530000002</v>
       </c>
-      <c r="X710" s="3">
+      <c r="X710" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="Y710" s="3">
+      <c r="Y710" s="4">
         <v>27.3</v>
       </c>
-      <c r="Z710" s="3">
+      <c r="Z710" s="4">
         <v>23.2</v>
       </c>
       <c r="AA710" s="5">
@@ -57199,13 +57199,13 @@
       <c r="W711" s="3">
         <v>30.789287399999999</v>
       </c>
-      <c r="X711" s="3">
+      <c r="X711" s="4">
         <v>18.2</v>
       </c>
-      <c r="Y711" s="3">
+      <c r="Y711" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z711" s="3">
+      <c r="Z711" s="4">
         <v>23.3</v>
       </c>
       <c r="AA711" s="5">
@@ -57300,13 +57300,13 @@
       <c r="W712" s="3">
         <v>29.49743789</v>
       </c>
-      <c r="X712" s="3">
+      <c r="X712" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y712" s="3">
+      <c r="Y712" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z712" s="3">
+      <c r="Z712" s="4">
         <v>22.8</v>
       </c>
       <c r="AA712" s="5">
@@ -57401,13 +57401,13 @@
       <c r="W713" s="3">
         <v>28.72485738</v>
       </c>
-      <c r="X713" s="3">
+      <c r="X713" s="4">
         <v>15.5</v>
       </c>
-      <c r="Y713" s="3">
+      <c r="Y713" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z713" s="3">
+      <c r="Z713" s="4">
         <v>21.7</v>
       </c>
       <c r="AA713" s="5">
@@ -57502,13 +57502,13 @@
       <c r="W714" s="3">
         <v>27.061815209999999</v>
       </c>
-      <c r="X714" s="3">
+      <c r="X714" s="4">
         <v>13</v>
       </c>
-      <c r="Y714" s="3">
+      <c r="Y714" s="4">
         <v>25.8</v>
       </c>
-      <c r="Z714" s="3">
+      <c r="Z714" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AA714" s="5">
@@ -57603,13 +57603,13 @@
       <c r="W715" s="3">
         <v>26.083480810000001</v>
       </c>
-      <c r="X715" s="3">
+      <c r="X715" s="4">
         <v>12.9</v>
       </c>
-      <c r="Y715" s="3">
+      <c r="Y715" s="4">
         <v>23.3</v>
       </c>
-      <c r="Z715" s="3">
+      <c r="Z715" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="AA715" s="5">
@@ -57704,13 +57704,13 @@
       <c r="W716" s="3">
         <v>24.508415859999999</v>
       </c>
-      <c r="X716" s="3">
+      <c r="X716" s="4">
         <v>12</v>
       </c>
-      <c r="Y716" s="3">
+      <c r="Y716" s="4">
         <v>22.8</v>
       </c>
-      <c r="Z716" s="3">
+      <c r="Z716" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AA716" s="5">
@@ -57805,13 +57805,13 @@
       <c r="W717" s="3">
         <v>27.58499626</v>
       </c>
-      <c r="X717" s="3">
+      <c r="X717" s="4">
         <v>13.5</v>
       </c>
-      <c r="Y717" s="3">
+      <c r="Y717" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z717" s="3">
+      <c r="Z717" s="4">
         <v>19.899999999999999</v>
       </c>
       <c r="AA717" s="5">
@@ -57906,13 +57906,13 @@
       <c r="W718" s="3">
         <v>29.591929950000001</v>
       </c>
-      <c r="X718" s="3">
+      <c r="X718" s="4">
         <v>15.3</v>
       </c>
-      <c r="Y718" s="3">
+      <c r="Y718" s="4">
         <v>27.4</v>
       </c>
-      <c r="Z718" s="3">
+      <c r="Z718" s="4">
         <v>21.4</v>
       </c>
       <c r="AA718" s="5">
@@ -58007,13 +58007,13 @@
       <c r="W719" s="3">
         <v>32.631922369999998</v>
       </c>
-      <c r="X719" s="3">
+      <c r="X719" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y719" s="3">
+      <c r="Y719" s="4">
         <v>29.9</v>
       </c>
-      <c r="Z719" s="3">
+      <c r="Z719" s="4">
         <v>23.9</v>
       </c>
       <c r="AA719" s="5">
@@ -58108,13 +58108,13 @@
       <c r="W720" s="3">
         <v>32.303753020000002</v>
       </c>
-      <c r="X720" s="3">
+      <c r="X720" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="Y720" s="3">
+      <c r="Y720" s="4">
         <v>31.3</v>
       </c>
-      <c r="Z720" s="3">
+      <c r="Z720" s="4">
         <v>25.4</v>
       </c>
       <c r="AA720" s="5">
@@ -58209,13 +58209,13 @@
       <c r="W721" s="3">
         <v>29.347880320000002</v>
       </c>
-      <c r="X721" s="3">
+      <c r="X721" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y721" s="3">
+      <c r="Y721" s="4">
         <v>28.4</v>
       </c>
-      <c r="Z721" s="3">
+      <c r="Z721" s="4">
         <v>23.7</v>
       </c>
       <c r="AA721" s="5">
@@ -58310,13 +58310,13 @@
       <c r="W722" s="3">
         <v>28.726992320000001</v>
       </c>
-      <c r="X722" s="3">
+      <c r="X722" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y722" s="3">
+      <c r="Y722" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z722" s="3">
+      <c r="Z722" s="4">
         <v>22.4</v>
       </c>
       <c r="AA722" s="5">
@@ -58411,13 +58411,13 @@
       <c r="W723" s="3">
         <v>28.658879550000002</v>
       </c>
-      <c r="X723" s="3">
+      <c r="X723" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y723" s="3">
+      <c r="Y723" s="4">
         <v>28.2</v>
       </c>
-      <c r="Z723" s="3">
+      <c r="Z723" s="4">
         <v>23.5</v>
       </c>
       <c r="AA723" s="5">
@@ -58512,13 +58512,13 @@
       <c r="W724" s="3">
         <v>27.761975159999999</v>
       </c>
-      <c r="X724" s="3">
+      <c r="X724" s="4">
         <v>18.5</v>
       </c>
-      <c r="Y724" s="3">
+      <c r="Y724" s="4">
         <v>26.6</v>
       </c>
-      <c r="Z724" s="3">
+      <c r="Z724" s="4">
         <v>22.6</v>
       </c>
       <c r="AA724" s="5">
@@ -58613,13 +58613,13 @@
       <c r="W725" s="3">
         <v>28.08621028</v>
       </c>
-      <c r="X725" s="3">
+      <c r="X725" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="Y725" s="3">
+      <c r="Y725" s="4">
         <v>26.3</v>
       </c>
-      <c r="Z725" s="3">
+      <c r="Z725" s="4">
         <v>21.7</v>
       </c>
       <c r="AA725" s="5">
@@ -58711,13 +58711,13 @@
       <c r="W726" s="3">
         <v>26.516126230000001</v>
       </c>
-      <c r="X726" s="3">
+      <c r="X726" s="4">
         <v>13.5</v>
       </c>
-      <c r="Y726" s="3">
+      <c r="Y726" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z726" s="3">
+      <c r="Z726" s="4">
         <v>19.2</v>
       </c>
       <c r="AA726" s="5">
@@ -58809,13 +58809,13 @@
       <c r="W727" s="3">
         <v>24.199840040000002</v>
       </c>
-      <c r="X727" s="3">
+      <c r="X727" s="4">
         <v>12.3</v>
       </c>
-      <c r="Y727" s="3">
+      <c r="Y727" s="4">
         <v>23.6</v>
       </c>
-      <c r="Z727" s="3">
+      <c r="Z727" s="4">
         <v>18</v>
       </c>
       <c r="AA727" s="5">
@@ -58907,13 +58907,13 @@
       <c r="W728" s="3">
         <v>24.78610857</v>
       </c>
-      <c r="X728" s="3">
+      <c r="X728" s="4">
         <v>11</v>
       </c>
-      <c r="Y728" s="3">
+      <c r="Y728" s="4">
         <v>23.2</v>
       </c>
-      <c r="Z728" s="3">
+      <c r="Z728" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="AA728" s="5">
@@ -59005,13 +59005,13 @@
       <c r="W729" s="3">
         <v>26.16314758</v>
       </c>
-      <c r="X729" s="3">
+      <c r="X729" s="4">
         <v>12.5</v>
       </c>
-      <c r="Y729" s="3">
+      <c r="Y729" s="4">
         <v>26.4</v>
       </c>
-      <c r="Z729" s="3">
+      <c r="Z729" s="4">
         <v>19.5</v>
       </c>
       <c r="AA729" s="5">
@@ -59103,13 +59103,13 @@
       <c r="W730" s="3">
         <v>28.198224740000001</v>
       </c>
-      <c r="X730" s="3">
+      <c r="X730" s="4">
         <v>14.4</v>
       </c>
-      <c r="Y730" s="3">
+      <c r="Y730" s="4">
         <v>27.1</v>
       </c>
-      <c r="Z730" s="3">
+      <c r="Z730" s="4">
         <v>20.7</v>
       </c>
       <c r="AA730" s="5">
@@ -59201,13 +59201,13 @@
       <c r="W731" s="3">
         <v>32.109917430000003</v>
       </c>
-      <c r="X731" s="3">
+      <c r="X731" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y731" s="3">
+      <c r="Y731" s="4">
         <v>30.5</v>
       </c>
-      <c r="Z731" s="3">
+      <c r="Z731" s="4">
         <v>24.6</v>
       </c>
       <c r="AA731" s="5">
@@ -59299,13 +59299,13 @@
       <c r="W732" s="3">
         <v>30.753474239999999</v>
       </c>
-      <c r="X732" s="3">
+      <c r="X732" s="4">
         <v>18.7</v>
       </c>
-      <c r="Y732" s="3">
+      <c r="Y732" s="4">
         <v>28.9</v>
       </c>
-      <c r="Z732" s="3">
+      <c r="Z732" s="4">
         <v>23.8</v>
       </c>
       <c r="AA732" s="5">
@@ -59397,13 +59397,13 @@
       <c r="W733" s="3">
         <v>30.031384240000001</v>
       </c>
-      <c r="X733" s="3">
+      <c r="X733" s="4">
         <v>20.8</v>
       </c>
-      <c r="Y733" s="3">
+      <c r="Y733" s="4">
         <v>28.5</v>
       </c>
-      <c r="Z733" s="3">
+      <c r="Z733" s="4">
         <v>24.6</v>
       </c>
       <c r="AA733" s="5">
@@ -59495,13 +59495,13 @@
       <c r="W734" s="3">
         <v>27.881058320000001</v>
       </c>
-      <c r="X734" s="3">
+      <c r="X734" s="4">
         <v>19.2</v>
       </c>
-      <c r="Y734" s="3">
+      <c r="Y734" s="4">
         <v>26.1</v>
       </c>
-      <c r="Z734" s="3">
+      <c r="Z734" s="4">
         <v>22.7</v>
       </c>
       <c r="AA734" s="5">
@@ -59593,13 +59593,13 @@
       <c r="W735" s="3">
         <v>29.491856909999999</v>
       </c>
-      <c r="X735" s="3">
+      <c r="X735" s="4">
         <v>18.3</v>
       </c>
-      <c r="Y735" s="3">
+      <c r="Y735" s="4">
         <v>27.3</v>
       </c>
-      <c r="Z735" s="3">
+      <c r="Z735" s="4">
         <v>22.8</v>
       </c>
       <c r="AA735" s="5">
@@ -59691,13 +59691,13 @@
       <c r="W736" s="3">
         <v>29.757018299999999</v>
       </c>
-      <c r="X736" s="3">
+      <c r="X736" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="Y736" s="3">
+      <c r="Y736" s="4">
         <v>28.6</v>
       </c>
-      <c r="Z736" s="3">
+      <c r="Z736" s="4">
         <v>23.6</v>
       </c>
       <c r="AA736" s="5">
@@ -59789,13 +59789,13 @@
       <c r="W737" s="3">
         <v>28.2158433</v>
       </c>
-      <c r="X737" s="3">
+      <c r="X737" s="4">
         <v>17</v>
       </c>
-      <c r="Y737" s="3">
+      <c r="Y737" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z737" s="3">
+      <c r="Z737" s="4">
         <v>21.9</v>
       </c>
       <c r="AA737" s="5">
@@ -59887,13 +59887,13 @@
       <c r="W738" s="3">
         <v>26.882161379999999</v>
       </c>
-      <c r="X738" s="3">
+      <c r="X738" s="4">
         <v>14.1</v>
       </c>
-      <c r="Y738" s="3">
+      <c r="Y738" s="4">
         <v>24.8</v>
       </c>
-      <c r="Z738" s="3">
+      <c r="Z738" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="AA738" s="5">
@@ -59985,13 +59985,13 @@
       <c r="W739" s="3">
         <v>25.19609535</v>
       </c>
-      <c r="X739" s="3">
+      <c r="X739" s="4">
         <v>11.9</v>
       </c>
-      <c r="Y739" s="3">
+      <c r="Y739" s="4">
         <v>23.8</v>
       </c>
-      <c r="Z739" s="3">
+      <c r="Z739" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="AA739" s="5">
@@ -60083,13 +60083,13 @@
       <c r="W740" s="3">
         <v>25.11955193</v>
       </c>
-      <c r="X740" s="3">
+      <c r="X740" s="4">
         <v>11.1</v>
       </c>
-      <c r="Y740" s="3">
+      <c r="Y740" s="4">
         <v>26</v>
       </c>
-      <c r="Z740" s="3">
+      <c r="Z740" s="4">
         <v>18.5</v>
       </c>
       <c r="AA740" s="5">
@@ -60181,13 +60181,13 @@
       <c r="W741" s="3">
         <v>26.94734034</v>
       </c>
-      <c r="X741" s="3">
+      <c r="X741" s="4">
         <v>12.5</v>
       </c>
-      <c r="Y741" s="3">
+      <c r="Y741" s="4">
         <v>25.3</v>
       </c>
-      <c r="Z741" s="3">
+      <c r="Z741" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="AA741" s="5">
@@ -60279,13 +60279,13 @@
       <c r="W742" s="3">
         <v>30.552423879999999</v>
       </c>
-      <c r="X742" s="3">
+      <c r="X742" s="4">
         <v>14.5</v>
       </c>
-      <c r="Y742" s="3">
+      <c r="Y742" s="4">
         <v>30.4</v>
       </c>
-      <c r="Z742" s="3">
+      <c r="Z742" s="4">
         <v>22.5</v>
       </c>
       <c r="AA742" s="5">
@@ -60377,13 +60377,13 @@
       <c r="W743" s="3">
         <v>32.221252300000003</v>
       </c>
-      <c r="X743" s="3">
+      <c r="X743" s="4">
         <v>16.7</v>
       </c>
-      <c r="Y743" s="3">
+      <c r="Y743" s="4">
         <v>28.9</v>
       </c>
-      <c r="Z743" s="3">
+      <c r="Z743" s="4">
         <v>22.8</v>
       </c>
       <c r="AA743" s="5">
@@ -60475,13 +60475,13 @@
       <c r="W744" s="3">
         <v>32.227858679999997</v>
       </c>
-      <c r="X744" s="3">
+      <c r="X744" s="4">
         <v>19.3</v>
       </c>
-      <c r="Y744" s="3">
+      <c r="Y744" s="4">
         <v>29.3</v>
       </c>
-      <c r="Z744" s="3">
+      <c r="Z744" s="4">
         <v>24.3</v>
       </c>
       <c r="AA744" s="5">
@@ -60573,13 +60573,13 @@
       <c r="W745" s="3">
         <v>29.344859599999999</v>
       </c>
-      <c r="X745" s="3">
+      <c r="X745" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="Y745" s="3">
+      <c r="Y745" s="4">
         <v>26.9</v>
       </c>
-      <c r="Z745" s="3">
+      <c r="Z745" s="4">
         <v>23</v>
       </c>
       <c r="AA745" s="5">
@@ -60665,13 +60665,13 @@
       <c r="W746" s="3">
         <v>28.46234686</v>
       </c>
-      <c r="X746" s="3">
+      <c r="X746" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y746" s="3">
+      <c r="Y746" s="4">
         <v>26.7</v>
       </c>
-      <c r="Z746" s="3">
+      <c r="Z746" s="4">
         <v>22.8</v>
       </c>
       <c r="AA746" s="5">
@@ -60757,13 +60757,13 @@
       <c r="W747" s="3">
         <v>28.924086249999998</v>
       </c>
-      <c r="X747" s="3">
+      <c r="X747" s="4">
         <v>17.2</v>
       </c>
-      <c r="Y747" s="3">
+      <c r="Y747" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z747" s="3">
+      <c r="Z747" s="4">
         <v>22.4</v>
       </c>
       <c r="AA747" s="5">
@@ -60849,13 +60849,13 @@
       <c r="W748" s="3">
         <v>27.41757325</v>
       </c>
-      <c r="X748" s="3">
+      <c r="X748" s="4">
         <v>16.5</v>
       </c>
-      <c r="Y748" s="3">
+      <c r="Y748" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z748" s="3">
+      <c r="Z748" s="4">
         <v>21.4</v>
       </c>
       <c r="AA748" s="5">
@@ -60941,13 +60941,13 @@
       <c r="W749" s="3">
         <v>27.435099350000002</v>
       </c>
-      <c r="X749" s="3">
+      <c r="X749" s="4">
         <v>13.8</v>
       </c>
-      <c r="Y749" s="3">
+      <c r="Y749" s="4">
         <v>26</v>
       </c>
-      <c r="Z749" s="3">
+      <c r="Z749" s="4">
         <v>19.899999999999999</v>
       </c>
       <c r="AA749" s="5">
@@ -61033,13 +61033,13 @@
       <c r="W750" s="3">
         <v>26.754280510000001</v>
       </c>
-      <c r="X750" s="3">
+      <c r="X750" s="4">
         <v>13.2</v>
       </c>
-      <c r="Y750" s="3">
+      <c r="Y750" s="4">
         <v>26.2</v>
       </c>
-      <c r="Z750" s="3">
+      <c r="Z750" s="4">
         <v>19.7</v>
       </c>
       <c r="AA750" s="5">
@@ -61125,13 +61125,13 @@
       <c r="W751" s="3">
         <v>23.91618171</v>
       </c>
-      <c r="X751" s="3">
+      <c r="X751" s="4">
         <v>11.3</v>
       </c>
-      <c r="Y751" s="3">
+      <c r="Y751" s="4">
         <v>22.8</v>
       </c>
-      <c r="Z751" s="3">
+      <c r="Z751" s="4">
         <v>17</v>
       </c>
       <c r="AA751" s="5">
@@ -61217,13 +61217,13 @@
       <c r="W752" s="3">
         <v>25.307203680000001</v>
       </c>
-      <c r="X752" s="3">
+      <c r="X752" s="4">
         <v>11.3</v>
       </c>
-      <c r="Y752" s="3">
+      <c r="Y752" s="4">
         <v>23.6</v>
       </c>
-      <c r="Z752" s="3">
+      <c r="Z752" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AA752" s="5">
@@ -61309,13 +61309,13 @@
       <c r="W753" s="3">
         <v>26.766673140000002</v>
       </c>
-      <c r="X753" s="3">
+      <c r="X753" s="4">
         <v>11.6</v>
       </c>
-      <c r="Y753" s="3">
+      <c r="Y753" s="4">
         <v>23.9</v>
       </c>
-      <c r="Z753" s="3">
+      <c r="Z753" s="4">
         <v>17.8</v>
       </c>
       <c r="AA753" s="5">
@@ -61401,13 +61401,13 @@
       <c r="W754" s="3">
         <v>30.16414339</v>
       </c>
-      <c r="X754" s="3">
+      <c r="X754" s="4">
         <v>14.7</v>
       </c>
-      <c r="Y754" s="3">
+      <c r="Y754" s="4">
         <v>27.8</v>
       </c>
-      <c r="Z754" s="3">
+      <c r="Z754" s="4">
         <v>21.2</v>
       </c>
       <c r="AA754" s="5">
@@ -61493,13 +61493,13 @@
       <c r="W755" s="3">
         <v>33.085073000000001</v>
       </c>
-      <c r="X755" s="3">
+      <c r="X755" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="Y755" s="3">
+      <c r="Y755" s="4">
         <v>30.8</v>
       </c>
-      <c r="Z755" s="3">
+      <c r="Z755" s="4">
         <v>24.4</v>
       </c>
       <c r="AA755" s="5">
@@ -61585,13 +61585,13 @@
       <c r="W756" s="3">
         <v>32.916884410000002</v>
       </c>
-      <c r="X756" s="3">
+      <c r="X756" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="Y756" s="3">
+      <c r="Y756" s="4">
         <v>31.6</v>
       </c>
-      <c r="Z756" s="3">
+      <c r="Z756" s="4">
         <v>25.8</v>
       </c>
       <c r="AA756" s="5">
@@ -61677,13 +61677,13 @@
       <c r="W757" s="3">
         <v>29.79339732</v>
       </c>
-      <c r="X757" s="3">
+      <c r="X757" s="4">
         <v>19</v>
       </c>
-      <c r="Y757" s="3">
+      <c r="Y757" s="4">
         <v>27.5</v>
       </c>
-      <c r="Z757" s="3">
+      <c r="Z757" s="4">
         <v>23.3</v>
       </c>
       <c r="AA757" s="5">

--- a/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
+++ b/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571F327-55E6-4C34-9A66-DC6697CBE59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8718B34-F819-475F-AC11-D537ACEDD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E52436F2-D984-4EE3-B8A0-F9D4A91B50A0}"/>
   </bookViews>
@@ -213,12 +213,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +249,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,9 +571,9 @@
   </sheetPr>
   <dimension ref="A1:AX925"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A749" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R757" sqref="A757:XFD757"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA812" sqref="AA812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -66704,8 +66711,8 @@
       <c r="X812" s="3"/>
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
-      <c r="AA812" s="5">
-        <v>774.22</v>
+      <c r="AA812" s="7">
+        <v>1148.3074999999999</v>
       </c>
       <c r="AB812" s="5">
         <v>1.1200000000000001</v>

--- a/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
+++ b/ChilwaBasinAllData/Dataset/dataset_05.12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaBasinAllData\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8718B34-F819-475F-AC11-D537ACEDD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5871F52-F190-4CF1-B3E1-C1F5A612328F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E52436F2-D984-4EE3-B8A0-F9D4A91B50A0}"/>
   </bookViews>
@@ -571,9 +571,9 @@
   </sheetPr>
   <dimension ref="A1:AX925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA812" sqref="AA812"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
